--- a/covid19_drdfm/data/example-output/SD/df.xlsx
+++ b/covid19_drdfm/data/example-output/SD/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>40909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1911968455201832</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2923076923076923</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40940</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.9868682461781157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258139200228848</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.2767911448733329</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9797476154831077</v>
+        <v>0.2769230769230769</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>40969</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.9870441617067307</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239012100173577</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.1984202670442547</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810227532710519</v>
+        <v>0.2769230769230769</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.9854362437322768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8180161564203544</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.08656199145688839</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802673354121212</v>
+        <v>0.2769230769230769</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41030</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.9868274138886178</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819039970538338</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.1400310125675917</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9781946328218968</v>
+        <v>0.2769230769230769</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41061</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.9864722301200715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8175601904981341</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.2458936684889089</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9782729285877159</v>
+        <v>0.2769230769230769</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.9771003779969896</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205909698480336</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.2415150964667461</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782685951174721</v>
+        <v>0.2769230769230769</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41122</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.9752647083228541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8218528986159431</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.1990315952374694</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766178983157136</v>
+        <v>0.2769230769230769</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834591805387279</v>
+        <v>0.9753182230985611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220476470543482</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.1903645527673143</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9791251766773968</v>
+        <v>0.2615384615384616</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41183</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.9943879850865608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210990580937662</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.2656550010191824</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98396198687112</v>
+        <v>0.2615384615384616</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.9962837117248686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212544385497698</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.3462302058487884</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784922095456062</v>
+        <v>0.2461538461538461</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41244</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.995810232662944</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244209083586208</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.4094646715004119</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9770136390526549</v>
+        <v>0.2461538461538461</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41275</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.9866288275135294</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8223316824338748</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.3414089456541139</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9824906505822639</v>
+        <v>0.2461538461538461</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41306</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.9856342490880072</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8259306364023364</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.25355811726861</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789649499577149</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41334</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805262264353838</v>
+        <v>0.988467873482236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8204826442824038</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.2052343999851028</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778175006322838</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.9867751665886449</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822175410606488</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.1607270861668122</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9772029075462043</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41395</v>
       </c>
       <c r="B18" t="n">
-        <v>0.815943793632123</v>
+        <v>0.9859538249879723</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8232958481094075</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.02668468010345873</v>
       </c>
       <c r="E18" t="n">
-        <v>0.978462438089242</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41426</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.9850945675916684</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8217901061473404</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.2442050669442393</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9807746156791444</v>
+        <v>0.2153846153846155</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41456</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.9858544198824891</v>
       </c>
       <c r="C20" t="n">
-        <v>0.819524705107271</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.2402951670397633</v>
       </c>
       <c r="E20" t="n">
-        <v>0.979262308224759</v>
+        <v>0.2153846153846155</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41487</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.985685105223959</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244296392645107</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.2230573269855229</v>
       </c>
       <c r="E21" t="n">
-        <v>0.978809824789761</v>
+        <v>0.2153846153846155</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41518</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.9863376918449059</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8220025398786427</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.166920023182301</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9786423571171835</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41548</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.9843184590781249</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8234365294311478</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.2701144801522594</v>
       </c>
       <c r="E23" t="n">
-        <v>0.982760952384311</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.984392693338956</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8256241022260118</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.3152016040433849</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9812503954983279</v>
+        <v>0.1846153846153847</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.9841473643561247</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8167674345972542</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.4558955464589535</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9796268144426162</v>
+        <v>0.1846153846153847</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41640</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.9899122952896006</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8219631015294253</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.333307729531285</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9777682868082346</v>
+        <v>0.1846153846153847</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.9906138658606791</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8207960185887884</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.2435655609722554</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9765583916561276</v>
+        <v>0.1692307692307692</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41699</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.9897578234479245</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8257300281421081</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.2170752063872309</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9818597384704605</v>
+        <v>0.1692307692307692</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41730</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.9873415895146681</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8270190966267184</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.1084437834901044</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9818450146574353</v>
+        <v>0.1692307692307692</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41760</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.9874528769894533</v>
       </c>
       <c r="C30" t="n">
-        <v>0.822667647186039</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.04495510135212435</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9813103476548442</v>
+        <v>0.1692307692307692</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41791</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822080809866217</v>
+        <v>0.987779944536664</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8277647645364593</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.2569507362829783</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9787811040867067</v>
+        <v>0.1538461538461538</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.9823164747191337</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8242174934096156</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.2315706478410685</v>
       </c>
       <c r="E32" t="n">
-        <v>0.981568512407801</v>
+        <v>0.1538461538461538</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41852</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.9832362912040586</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8217938869930206</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.2061807625340628</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9755787392253349</v>
+        <v>0.1538461538461538</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41883</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.9830088366160736</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8266302034985644</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.1803721512266706</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9791237022486354</v>
+        <v>0.1538461538461538</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41913</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.9843912389763748</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824127956244755</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.2705348590361562</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9777252114392785</v>
+        <v>0.1538461538461538</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41944</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.9846812314810857</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8257594276344505</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.4349513119728748</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9784373590744389</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>41974</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.9851162183309804</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8254627742564683</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.3821709698458895</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778768331199639</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42005</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.991393018555389</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8222752866023222</v>
+        <v>0.4671283096935754</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.3415825228444795</v>
       </c>
       <c r="E38" t="n">
-        <v>0.973189625613409</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42036</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.9877917243236148</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8250360465027927</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.2406521685205525</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9781517738182761</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42064</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.9876217748226509</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8183126748240903</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.1940900340808913</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9803666848320294</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.9870267502304884</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254374346256902</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.004994594612462322</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9809898533911975</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42125</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.9860957240740617</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8277463401846614</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.1788476025582867</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9791221375105186</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42156</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.9863479800757787</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8206217231591978</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.2638817498695101</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978997543988299</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42186</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.987732877118478</v>
       </c>
       <c r="C44" t="n">
-        <v>0.825997886786185</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.1869401721371576</v>
       </c>
       <c r="E44" t="n">
-        <v>0.977651602238532</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42217</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.9881864181755687</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8200613956704663</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.2673996879603596</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770182518838439</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42248</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.9890272465585122</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8198242076397693</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.1690781374455284</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9793377865484874</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42278</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.9909213164896956</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8269545291609484</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.2363163490711443</v>
       </c>
       <c r="E47" t="n">
-        <v>0.974613594179923</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42309</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.9904442541889684</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8232721524409696</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.2998080533577057</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9783873368083413</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42339</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.9912128792887085</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8251024926703656</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.5189598165400107</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9767338669535904</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42370</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.9795577609426185</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8190219459600729</v>
+        <v>0.2405565124923187</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.3712774178393858</v>
       </c>
       <c r="E50" t="n">
-        <v>0.98167363084452</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42401</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.9801444494222538</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8227369194373043</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.2432400746546668</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9804857309116678</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42430</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.9784066276441539</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8244083425910558</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.1791087707261851</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9799677242166804</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42461</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.9871405828036147</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8218700422722833</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.0275864029228233</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9843664993593824</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42491</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.9881601820105766</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163254740842698</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.145915544988168</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9803337721967778</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42522</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.9879011361754688</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8241843065082501</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.2996142629395721</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9790415223734227</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42552</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.9897248060507798</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8284285715748178</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.2752258901375228</v>
       </c>
       <c r="E56" t="n">
-        <v>0.981015281890797</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.9890744957073162</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8202700264204013</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.200639758595858</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9817396552186772</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42614</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.9889082572024572</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8258780750537105</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.1510512154546906</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787856550618544</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42644</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.9848945221892067</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8186995853766205</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.2690493955742209</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9801327453041018</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42675</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.985937399242734</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191507907084582</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.3430097150086387</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760322058243911</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42705</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.9851147555301939</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8228900852335511</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.5149476924133661</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9794266720231996</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42736</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.9871505230436742</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8233304665654089</v>
+        <v>0.3605066671821824</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.3067779291788831</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9846549301094776</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42767</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.9883747944381096</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8223746599484877</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.2390252649926611</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9820560951350176</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.9895448507268076</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8195031242404242</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.1937172887240519</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9721032874061285</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42826</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813441790037817</v>
+        <v>0.9826296457361958</v>
       </c>
       <c r="C65" t="n">
-        <v>0.82201841942333</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.03828970228867895</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9838459099350136</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42856</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.9840412609132497</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8227593368173521</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.1077397968215371</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9778158293211698</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42887</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.9833273750059589</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8220724558148131</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.251060829337223</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9800304991106373</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42917</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.9836925946078967</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8215006893539329</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.2398494038312665</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9765079631200255</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42948</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.9824784445159067</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8196592654238672</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.2260035232727512</v>
       </c>
       <c r="E69" t="n">
-        <v>0.979102434513735</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>42979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.9816859180769291</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818047234278343</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.1572500682975594</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9794011733698422</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43009</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.9836188044207614</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8201370254127243</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.2442393787498847</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9848340411545677</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43040</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.9835102671114052</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8231901576691838</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.4049816999836528</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9771776535582584</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43070</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.9836265860661397</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819973832527095</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.4556362771191724</v>
       </c>
       <c r="E73" t="n">
-        <v>0.980097022167201</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43101</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.999498128653896</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8201546828915486</v>
+        <v>0.340640078685547</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.3411850641581992</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9868247112645042</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43132</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.9997108636728107</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8290277501110732</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.2503820569032379</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9827496788666857</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43160</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.9998988608750282</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8228779466578857</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.2046322553457289</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9834844979235169</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43191</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.9825431710178614</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8199781543527314</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.1347728819291013</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810957775417388</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43221</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.9825696354066686</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8267750524003048</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9817591353187322</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43252</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.9829914629391346</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8223965221927245</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.2288761419175686</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784106657816277</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.985110526788161</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8166722053316008</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.240366264495745</v>
       </c>
       <c r="E80" t="n">
-        <v>0.979491595978044</v>
+        <v>0.0615384615384616</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.9851900104851321</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8238186390224658</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.1913223275697164</v>
       </c>
       <c r="E81" t="n">
-        <v>0.975033970154923</v>
+        <v>0.0615384615384616</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>0.824129043682934</v>
+        <v>0.9843961232164533</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8178823542293278</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.1813378669517052</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9826209712153378</v>
+        <v>0.0615384615384616</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43374</v>
       </c>
       <c r="B83" t="n">
-        <v>0.819552886792289</v>
+        <v>0.9847588848752253</v>
       </c>
       <c r="C83" t="n">
-        <v>0.820674477890516</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.3059706466229165</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9796210093737875</v>
+        <v>0.0615384615384616</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43405</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.9854996161898454</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8181339159172965</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.3263306779432031</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98166126228281</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43435</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.9856203106312087</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8213242929372483</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.4928906849039097</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9806439707852279</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43466</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.987630051873893</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8259309936709726</v>
+        <v>0.278629091183455</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.3517098391132553</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9786664338987189</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43497</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.9866650695850298</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8138010898794865</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.2812010341538476</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9767325971937034</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43525</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.9859917244742943</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8229487460305345</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.2264527622025843</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793252182555847</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43556</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.9858376697173431</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8234836547045727</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.06858034507362673</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9851240471169656</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43586</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.9871931756685116</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8170516540991243</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.01457088957446162</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9785662060674547</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43617</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.9871717338792434</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8206962770596742</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.2432965699612375</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9823941640804321</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43647</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.9894933973587041</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8175942660774596</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.2645247146055693</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9798030836781131</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43678</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.9900853997508947</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8230507446757434</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.2199431155930381</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9781783786194277</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.9898573471482649</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8221298771470258</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.1703288041101831</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9765585280189282</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43739</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.9878557386571445</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819289810779421</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.2760802453378925</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9797858088696763</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43770</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.9887183111622193</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8224031023543661</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.3884666786855087</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9750503690185857</v>
+        <v>0.0615384615384616</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43800</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.9875583517131562</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8183015343154202</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.4537809352991061</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9831072632591373</v>
+        <v>0.0615384615384616</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43831</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.9828525666923044</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8266883716369168</v>
+        <v>0.1036849252461084</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.3363607742226571</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9826493603113391</v>
+        <v>0.0615384615384616</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43862</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.9832707470963846</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8244621293926442</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.2571934501628697</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98124669381788</v>
+        <v>0.04615384615384621</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43891</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.9851810863060856</v>
       </c>
       <c r="C100" t="n">
-        <v>0.762894256021043</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.1837646401383088</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717266243966615</v>
+        <v>0.03076923076923083</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43922</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.9778808810652656</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01182346175643989</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.956664595749088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43952</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.9740337071782869</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9241151740788696</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.2227567779523529</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9795497106727131</v>
+        <v>0.6615384615384614</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>43983</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.9723839186153446</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.1741398098794855</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9824998107526026</v>
+        <v>0.4615384615384615</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8619915693855537</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8719716723206929</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.1896726643824541</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9876516371695102</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44044</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.9995044098488705</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827494139037064</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.06059514243980324</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9869906892720072</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44075</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8220104815944788</v>
+        <v>0.9997999490256538</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8519897923760563</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.1100517130338768</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9811618247421615</v>
+        <v>0.2615384615384616</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.9896307417847728</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8424105555477105</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0.06992512714493043</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9753990616390603</v>
+        <v>0.2153846153846155</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809529527014256</v>
+        <v>0.9896886816798469</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8247803516057473</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.2265731323222581</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9751453397140232</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44166</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.9872801968526778</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804278529958791</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.2896019127213781</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9875337282372185</v>
+        <v>0.1846153846153847</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44197</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.9896151174094895</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8336290661528916</v>
+        <v>0.6869021473603801</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.2641593699030962</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9869867133354615</v>
+        <v>0.1538461538461538</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44228</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.9898373272016392</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8366655330876169</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.2804731875458239</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9809566549164035</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44256</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.9883049934135102</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8445415267298729</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.2140293398894549</v>
       </c>
       <c r="E112" t="n">
-        <v>0.991288101526027</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44287</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.9894961333120041</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8254862688070219</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.07571153649013401</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44317</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.9895562157489296</v>
       </c>
       <c r="C114" t="n">
-        <v>0.832893679041615</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.1534945131624844</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9953177368131433</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44348</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.9892051087495881</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8407928447358934</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.2038594155648589</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9938378403237628</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44378</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.9850576326392908</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8435193384603674</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.1078235697140766</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9902418238171297</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44409</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.9854063261166083</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8394124451332354</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.2444482692276145</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9875954422895242</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44440</v>
       </c>
       <c r="B118" t="n">
-        <v>0.829324685465715</v>
+        <v>0.9858683419125577</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8353603053475847</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.0825087633232974</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9826403914483204</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44470</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.9851557359317356</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8435751480102291</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.1926279730688892</v>
       </c>
       <c r="E119" t="n">
-        <v>0.990822126533077</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44501</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.984919735469224</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8372741196385735</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.3775200261392984</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9952808646827681</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44531</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.985312911327368</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8355296793252621</v>
+        <v>0.2742923152789882</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.4342934994517286</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9964095594698834</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44562</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.9907672441942948</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8279498252863896</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.4079363369724504</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9934873959452977</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44593</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.9902854956559426</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8476052779413291</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.2447512174724679</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9891751212416464</v>
+        <v>0.04615384615384621</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.988148038243264</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8296529253655485</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.2219290711988536</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9891880507522977</v>
+        <v>0.03076923076923083</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44652</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7954831318683658</v>
+        <v>0.9895358980349535</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8238175672650873</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.0025840470772025</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9868666973528365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.9871775334553915</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8277797188483189</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.02717293657661712</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9894910767429179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44713</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.9849540918522948</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8279645765271101</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.257309737740098</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9998990712482405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44743</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.988835655179478</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8350499354766038</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.2716846568714628</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9771713840447283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44774</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.9867605378490756</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8272376443346845</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.1928000425180111</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9966912583357779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44805</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.986315570748078</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827137159737487</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.2186608676624533</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9931564108696392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44835</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.9848649262371179</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8261809070724782</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.2190729911806084</v>
       </c>
       <c r="E131" t="n">
-        <v>0.986597945689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44866</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.9864622718250357</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8249456853534888</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.3842462459056604</v>
       </c>
       <c r="E132" t="n">
-        <v>0.982967929989221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>44896</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.9867162389918183</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8231128340033643</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9894576781362352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/SD/df.xlsx
+++ b/covid19_drdfm/data/example-output/SD/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,54 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -480,7 +515,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.2923076923076923</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +547,34 @@
         <v>0.9868682461781157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.7032270994259294</v>
       </c>
       <c r="D3" t="n">
+        <v>0.4737045229118747</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.2767911448733329</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.9677419354838719</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.2769230769230769</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9943589385115211</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.99701172167969</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9679389035394174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +585,34 @@
         <v>0.9870441617067307</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.7009810269017539</v>
       </c>
       <c r="D4" t="n">
+        <v>0.4821249939228794</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1984202670442547</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.9354838709677438</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.2769230769230769</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9945021362525528</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9971728378168827</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.966573298315848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +623,34 @@
         <v>0.9854362437322768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5797826902586053</v>
       </c>
       <c r="D5" t="n">
+        <v>0.4569405204233162</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.08656199145688839</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.9032258064516121</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.2769230769230769</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9947672778115013</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9974762822290354</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9640820130383683</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +661,34 @@
         <v>0.9868274138886178</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5786587501534171</v>
       </c>
       <c r="D6" t="n">
+        <v>0.5210079104301517</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.1400310125675917</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.9032258064516121</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.2769230769230769</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9958682181731456</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9987548264706965</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9538741718760513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +699,34 @@
         <v>0.9864722301200715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5775465126226558</v>
       </c>
       <c r="D7" t="n">
+        <v>0.504306321230209</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.2458936684889089</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.8709677419354875</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.2769230769230769</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9955816851468706</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9984148300883421</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.956476820529933</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +737,34 @@
         <v>0.9771003779969896</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.06436385797474525</v>
       </c>
       <c r="D8" t="n">
+        <v>0.08695502661972937</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.2415150964667461</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.8709677419354875</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.2769230769230769</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.995185475396468</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9979469548277106</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9600922983102562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +775,34 @@
         <v>0.9752647083228541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.05806907334779704</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.1990315952374694</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.8709677419354875</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.2769230769230769</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9938221821688548</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9963509634584204</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9726370191705382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +813,34 @@
         <v>0.9753182230985611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.05158099855586923</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0003290716849049802</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.1903645527673143</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.8709677419354875</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.2615384615384616</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9939629318159511</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9965096290030682</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9712958398905062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +851,34 @@
         <v>0.9943879850865608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2742923152789882</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
+        <v>0.8894476881173518</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.2656550010191824</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.8709677419354875</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.2615384615384616</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9939896311834069</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9965353093646726</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9710078867636006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +889,34 @@
         <v>0.9962837117248686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.9944724969798733</v>
       </c>
       <c r="D12" t="n">
+        <v>0.9788548120863076</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.3462302058487884</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.8387096774193559</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.2461538461538461</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9956380546565073</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9984529282936044</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9557458204525275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +927,34 @@
         <v>0.995810232662944</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.9890660359218981</v>
       </c>
       <c r="D13" t="n">
+        <v>0.958626076106208</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.4094646715004119</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.8064516129032278</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.2461538461538461</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9953989930665867</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.998168699772593</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9579119267895568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +965,34 @@
         <v>0.9866288275135294</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.586752259017648</v>
       </c>
       <c r="D14" t="n">
+        <v>0.5131690086300654</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.3414089456541139</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.7741935483870996</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.2461538461538461</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9947726047475365</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.996021278131152</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9666573187698657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1003,34 @@
         <v>0.9856342490880072</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5860205673566089</v>
       </c>
       <c r="D15" t="n">
+        <v>0.4670372565743995</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.25355811726861</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.741935483870968</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.2307692307692308</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9939813461023632</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.99510272261563</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9739022526346681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1041,34 @@
         <v>0.988467873482236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5852960532601483</v>
       </c>
       <c r="D16" t="n">
+        <v>0.5979719131128902</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.2052343999851028</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.7096774193548399</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.2307692307692308</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9962316842968993</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9977323888800622</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.953062076468007</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1079,34 @@
         <v>0.9867751665886449</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5236346045394227</v>
       </c>
       <c r="D17" t="n">
+        <v>0.5945171236907036</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.1607270861668122</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.7096774193548399</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.2307692307692308</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.995982922383422</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9974466104558838</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9552985360150279</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1117,34 @@
         <v>0.9859538249879723</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5234705187071165</v>
       </c>
       <c r="D18" t="n">
+        <v>0.5561242575417651</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.02668468010345873</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.7096774193548399</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.2307692307692308</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9953243542867891</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.996682721566502</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9613194141187007</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1155,34 @@
         <v>0.9850945675916684</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5233071902834195</v>
       </c>
       <c r="D19" t="n">
+        <v>0.5159783552001674</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.2442050669442393</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.6774193548387082</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.2153846153846155</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9946357069818934</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9958837039175842</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9676185898792923</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1193,34 @@
         <v>0.9858544198824891</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5400327852829484</v>
       </c>
       <c r="D20" t="n">
+        <v>0.4769126538054654</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.2402951670397633</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.6774193548387082</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.2153846153846155</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9950434005969891</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.996363609739512</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9637948380358665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1231,34 @@
         <v>0.985685105223959</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5390749272057044</v>
       </c>
       <c r="D21" t="n">
+        <v>0.4685213209668389</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.2230573269855229</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.2153846153846155</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9949035078490781</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9962046746427933</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9650278671739611</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1269,34 @@
         <v>0.9863376918449059</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5381240580636671</v>
       </c>
       <c r="D22" t="n">
+        <v>0.498150714237989</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.166920023182301</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.6129032258064555</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9954166812195209</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9968075486247194</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9602308122521267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1307,34 @@
         <v>0.9843184590781249</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4511812931641361</v>
       </c>
       <c r="D23" t="n">
+        <v>0.4005695758728437</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.2701144801522594</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.5806451612903238</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.994820823746987</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9961166186247231</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9656751792246812</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1345,34 @@
         <v>0.984392693338956</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4500417054098162</v>
       </c>
       <c r="D24" t="n">
+        <v>0.4029133234542104</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.3152016040433849</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.5806451612903238</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.1846153846153847</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9948738321925559</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9961825988659612</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9651282623410788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1383,34 @@
         <v>0.9841473643561247</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4489001324552864</v>
       </c>
       <c r="D25" t="n">
+        <v>0.3904718298936434</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.4558955464589535</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.6129032258064555</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.1846153846153847</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9946729850950272</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9959524004631578</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9669260016326096</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1421,34 @@
         <v>0.9899122952896006</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.7706566902414165</v>
       </c>
       <c r="D26" t="n">
+        <v>0.7539190312873689</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.333307729531285</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.6129032258064555</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.1846153846153847</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9950940202586995</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.996114590095561</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9665405811298221</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1459,34 @@
         <v>0.9906138658606791</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.7688278629884534</v>
       </c>
       <c r="D27" t="n">
+        <v>0.786187656232195</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.2435655609722554</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.1692307692307692</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.995680634688192</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9968060161011242</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9610381658735081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1497,34 @@
         <v>0.9897578234479245</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.7670225464271512</v>
       </c>
       <c r="D28" t="n">
+        <v>0.7464002524047624</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.2170752063872309</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.1692307692307692</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9950290656500622</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9960529401555825</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9669709174555586</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1535,34 @@
         <v>0.9873415895146681</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6580752801441139</v>
       </c>
       <c r="D29" t="n">
+        <v>0.4742790210082277</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.1084437834901044</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.1692307692307692</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9950483330608199</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9960823645098994</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9667094161832184</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1573,34 @@
         <v>0.9874528769894533</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6561116391774811</v>
       </c>
       <c r="D30" t="n">
+        <v>0.4796845518725111</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.04495510135212435</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.1692307692307692</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9951381108807422</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9961939687383287</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9657974574043684</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1611,34 @@
         <v>0.987779944536664</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6541790147720429</v>
       </c>
       <c r="D31" t="n">
+        <v>0.4950692071639683</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.2569507362829783</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.1538461538461538</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9953993145576944</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9965054778402285</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9633029987871482</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1649,34 @@
         <v>0.9823164747191337</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3831256636519635</v>
       </c>
       <c r="D32" t="n">
+        <v>0.2661782085722706</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.2315706478410685</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.1538461538461538</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9952194035892123</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9963023258203161</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9648830981661997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1687,34 @@
         <v>0.9832362912040586</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.379811041359327</v>
       </c>
       <c r="D33" t="n">
+        <v>0.3064589450522511</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.2061807625340628</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.1538461538461538</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9959504877898057</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9971618335049719</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9580503926351426</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +1725,34 @@
         <v>0.9830088366160736</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3764662594405501</v>
       </c>
       <c r="D34" t="n">
+        <v>0.2936197551444125</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.1803721512266706</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.6774193548387082</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.1538461538461538</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9957701846767207</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.996958080577356</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9596354928650028</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +1763,34 @@
         <v>0.9843912389763748</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4483929522760918</v>
       </c>
       <c r="D35" t="n">
+        <v>0.4472056667061405</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.2705348590361562</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.6774193548387082</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.1538461538461538</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9959904247857578</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9972215152929835</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9575220698412108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +1801,34 @@
         <v>0.9846812314810857</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4475017974959454</v>
       </c>
       <c r="D36" t="n">
+        <v>0.4599552863871794</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.4349513119728748</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.6774193548387082</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9962153179736744</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9974903083212233</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9553663852445861</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +1839,34 @@
         <v>0.9851162183309804</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4466088528898878</v>
       </c>
       <c r="D37" t="n">
+        <v>0.4794093222051089</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.3821709698458895</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.6774193548387082</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9965555050272864</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.9978935288633971</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9521466689884892</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +1877,34 @@
         <v>0.991393018555389</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4671283096935754</v>
+        <v>0.5556604666921346</v>
       </c>
       <c r="D38" t="n">
+        <v>0.7224845686019766</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.3415825228444795</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.6774193548387082</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.998354141925435</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9391826878446033</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +1915,34 @@
         <v>0.9877917243236148</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5554981992742091</v>
       </c>
       <c r="D39" t="n">
+        <v>0.5563397900546089</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.2406521685205525</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9954934027149097</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9966706407825117</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.965489893197179</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +1953,34 @@
         <v>0.9876217748226509</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5553365782833861</v>
       </c>
       <c r="D40" t="n">
+        <v>0.5489173710093087</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.1940900340808913</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9953589958753968</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.9965215890549495</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9666207178331913</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +1991,34 @@
         <v>0.9870267502304884</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5191690556526207</v>
       </c>
       <c r="D41" t="n">
+        <v>0.489496344197307</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.004994594612462322</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9958692186987508</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9971244281140031</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9617994349538268</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2029,34 @@
         <v>0.9860957240740617</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5189665064669197</v>
       </c>
       <c r="D42" t="n">
+        <v>0.4465525826415619</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.1788476025582867</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9951219934079208</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9962602976723656</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9685919911023991</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2067,34 @@
         <v>0.9863479800757787</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5187649065110128</v>
       </c>
       <c r="D43" t="n">
+        <v>0.4583495096445215</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.2638817498695101</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.6129032258064555</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9953150310060733</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9964929310752416</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9667021880574344</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2105,34 @@
         <v>0.987732877118478</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.590797308534841</v>
       </c>
       <c r="D44" t="n">
+        <v>0.5664361823019488</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.1869401721371576</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.6129032258064555</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9958098187538911</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9970774734127471</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9620265158749708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2143,34 @@
         <v>0.9881864181755687</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5905509649962073</v>
       </c>
       <c r="D45" t="n">
+        <v>0.5876817697776895</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.2673996879603596</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.5806451612903238</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.1076923076923077</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9961673634858157</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9975018209080251</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9586193262337169</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2181,34 @@
         <v>0.9890272465585122</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5903054348496281</v>
       </c>
       <c r="D46" t="n">
+        <v>0.6268443680346696</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.1690781374455284</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.5806451612903238</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.1076923076923077</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9968326682362012</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9982850889800915</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9523708961543608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2219,34 @@
         <v>0.9909213164896956</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6548301019316398</v>
       </c>
       <c r="D47" t="n">
+        <v>0.7569792848725709</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.2363163490711443</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.5483870967741957</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9962152928447381</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.997571969778196</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9579696750175393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2257,34 @@
         <v>0.9904442541889684</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6531911624404501</v>
       </c>
       <c r="D48" t="n">
+        <v>0.7350319270926521</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.2998080533577057</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.5483870967741957</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9958613563441323</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9971660760405542</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9611364394003525</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2295,34 @@
         <v>0.9912128792887085</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6515765512864212</v>
       </c>
       <c r="D49" t="n">
+        <v>0.7707207811140175</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.5189598165400107</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
+        <v>0.5806451612903238</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.996496655046944</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9979140731544557</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9551682272165031</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2333,34 @@
         <v>0.9795577609426185</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2405565124923187</v>
+        <v>0.2179797793756399</v>
       </c>
       <c r="D50" t="n">
+        <v>0.2379253329618874</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.3712774178393858</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.5806451612903238</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9946846773365124</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.997601163900217</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9607309983917958</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2371,34 @@
         <v>0.9801444494222538</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.2145811317510423</v>
       </c>
       <c r="D51" t="n">
+        <v>0.2637648592066592</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.2432400746546668</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.5806451612903238</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.995196885183195</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9981926279235881</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9559797406527168</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2409,34 @@
         <v>0.9784066276441539</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.2111099404182025</v>
       </c>
       <c r="D52" t="n">
+        <v>0.1820165646535209</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.1791087707261851</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.5483870967741957</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9938631639771643</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.9966308139540744</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9682764402574415</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2447,34 @@
         <v>0.9871405828036147</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5702184013069356</v>
       </c>
       <c r="D53" t="n">
+        <v>0.5428687199594108</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.0275864029228233</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.5483870967741957</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.993412604851824</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9960992946375503</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9724172516696103</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2485,34 @@
         <v>0.9881601820105766</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5700444041272102</v>
       </c>
       <c r="D54" t="n">
+        <v>0.590467717901734</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.145915544988168</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.5161290322580641</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9942356554777858</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9970535393045784</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9647954030113071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +2523,34 @@
         <v>0.9879011361754688</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5698709075460048</v>
       </c>
       <c r="D55" t="n">
+        <v>0.5788989464901042</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.2996142629395721</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.5161290322580641</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.1076923076923077</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9940425885453623</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9968225054880101</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9665581937920824</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +2561,34 @@
         <v>0.9897248060507798</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6506747708820242</v>
       </c>
       <c r="D56" t="n">
+        <v>0.6721017379599356</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.2752258901375228</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.4838709677419359</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9947169183949818</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.9976033733736265</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9603096985690595</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +2599,34 @@
         <v>0.9890744957073162</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6501158393872015</v>
       </c>
       <c r="D57" t="n">
+        <v>0.6426455049556629</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.200639758595858</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9942228799365836</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9970213560393755</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9648524551104239</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +2637,34 @@
         <v>0.9889082572024572</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6495599367297102</v>
       </c>
       <c r="D58" t="n">
+        <v>0.6355723281365233</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.1510512154546906</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9941131088808379</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9968876529027257</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9658462222735239</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +2675,34 @@
         <v>0.9848945221892067</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4646521214204528</v>
       </c>
       <c r="D59" t="n">
+        <v>0.4361579907659955</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.2690493955742209</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9938955496083338</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9966282643868242</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9678357228058145</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +2713,34 @@
         <v>0.985937399242734</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4643104324711352</v>
       </c>
       <c r="D60" t="n">
+        <v>0.4839521322346508</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.3430097150086387</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.3870967741935516</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9947222734815092</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.9975871179383207</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9601796615295174</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +2751,34 @@
         <v>0.9851147555301939</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4639686731875234</v>
       </c>
       <c r="D61" t="n">
+        <v>0.4454164846666762</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.5149476924133661</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9940667462483728</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9968169298634303</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9662146507041421</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +2789,34 @@
         <v>0.9871505230436742</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3605066671821824</v>
+        <v>0.6501859753753982</v>
       </c>
       <c r="D62" t="n">
+        <v>0.5489904012142598</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.3067779291788831</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.3870967741935516</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9933552250823668</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.996067187418036</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9741675116419231</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +2827,34 @@
         <v>0.9883747944381096</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6496285745329416</v>
       </c>
       <c r="D63" t="n">
+        <v>0.6061132513400365</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.2390252649926611</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.3870967741935516</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.994342627755744</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.9972123085697379</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9650207628940169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +2865,34 @@
         <v>0.9895448507268076</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6490742005440343</v>
       </c>
       <c r="D64" t="n">
+        <v>0.6607237015948318</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.1937172887240519</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.3870967741935516</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.995286753036703</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.9983070149523757</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9562735189784204</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +2903,34 @@
         <v>0.9826296457361958</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4005340829130422</v>
       </c>
       <c r="D65" t="n">
+        <v>0.3528707087357045</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.03828970228867895</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.3870967741935516</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.1076923076923077</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9940369438912495</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.9968424970013627</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.967792310613265</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +2941,34 @@
         <v>0.9840412609132497</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3994136117967252</v>
       </c>
       <c r="D66" t="n">
+        <v>0.4172323887065344</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.1077397968215371</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.1076923076923077</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9951604205746634</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.9981465592361854</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9573885046215503</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +2979,34 @@
         <v>0.9833273750059589</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3982854331891656</v>
       </c>
       <c r="D67" t="n">
+        <v>0.3832187799351626</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.251060829337223</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.1076923076923077</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.994595109901581</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9974806660592865</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9625847141759466</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3017,34 @@
         <v>0.9836925946078967</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3205706240938403</v>
       </c>
       <c r="D68" t="n">
+        <v>0.3574301784856681</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.2398494038312665</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.3870967741935516</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9949101370186373</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.9978417800738351</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9596490326494385</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3055,34 @@
         <v>0.9824784445159067</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3191213185655901</v>
       </c>
       <c r="D69" t="n">
+        <v>0.299671901356587</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.2260035232727512</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.3870967741935516</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9939475745447625</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9967126135843541</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9685152302080455</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3093,34 @@
         <v>0.9816859180769291</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3176530121481123</v>
       </c>
       <c r="D70" t="n">
+        <v>0.2614107109253322</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.1572500682975594</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9933200623009718</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.9959743576050992</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9742869427779088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3131,34 @@
         <v>0.9836188044207614</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4467835215823885</v>
       </c>
       <c r="D71" t="n">
+        <v>0.3207191785387242</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.2442393787498847</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.1076923076923077</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9943487231459185</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9971681404748164</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9647592257847142</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3169,34 @@
         <v>0.9835102671114052</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4440651573949227</v>
       </c>
       <c r="D72" t="n">
+        <v>0.3139181912875395</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.4049816999836528</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.1076923076923077</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9942619535947481</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.9970608032716221</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9655357433002423</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3207,34 @@
         <v>0.9836265860661397</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4413403103002275</v>
       </c>
       <c r="D73" t="n">
+        <v>0.317498417146852</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.4556362771191724</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.1076923076923077</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9943538685422734</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.997161968721834</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9646616633608113</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3245,34 @@
         <v>0.999498128653896</v>
       </c>
       <c r="C74" t="n">
-        <v>0.340640078685547</v>
+        <v>0.9232918407880069</v>
       </c>
       <c r="D74" t="n">
+        <v>0.8686333774777591</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.3411850641581992</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9938724399467793</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.9961573971652663</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9735329438710333</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3283,34 @@
         <v>0.9997108636728107</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.91891287485493</v>
       </c>
       <c r="D75" t="n">
+        <v>0.8926261635028784</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.2503820569032379</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.9943745048613057</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.9967393944679769</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9688438384149842</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +3321,34 @@
         <v>0.9998988608750282</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.9146256047077951</v>
       </c>
       <c r="D76" t="n">
+        <v>0.914589619057907</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.2046322553457289</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9948391914977408</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9972778317111342</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9645001110870208</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +3359,34 @@
         <v>0.9825431710178614</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4367641354802088</v>
       </c>
       <c r="D77" t="n">
+        <v>0.3765124701089489</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.1347728819291013</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9945864637892105</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.9969794267500434</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9667848214319522</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +3397,34 @@
         <v>0.9825696354066686</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4351837910221035</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.3765589446054607</v>
       </c>
       <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9946079686490239</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.9970009638770027</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9665362728472044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +3435,34 @@
         <v>0.9829914629391346</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4335981970695192</v>
       </c>
       <c r="D79" t="n">
+        <v>0.3948959685946022</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.2288761419175686</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.994943693217996</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9973890880117569</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9633848452105244</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +3473,34 @@
         <v>0.985110526788161</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4291255411219423</v>
       </c>
       <c r="D80" t="n">
+        <v>0.4920496503867814</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.240366264495745</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.0615384615384616</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9950394677088439</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.9974973439597963</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9624506699879065</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +3511,34 @@
         <v>0.9851900104851321</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.42889311231252</v>
       </c>
       <c r="D81" t="n">
+        <v>0.4950292824521041</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.1913223275697164</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.0615384615384616</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9950973294319542</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9975614134152312</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9618671054426999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +3549,34 @@
         <v>0.9843961232164533</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4286598144746093</v>
       </c>
       <c r="D82" t="n">
+        <v>0.4575940123968969</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.1813378669517052</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.258064516129032</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.0615384615384616</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9944612798661453</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.9968160571318571</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9676953519512914</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +3587,34 @@
         <v>0.9847588848752253</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4362149088272211</v>
       </c>
       <c r="D83" t="n">
+        <v>0.491527944102063</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.3059706466229165</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.258064516129032</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.0615384615384616</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.994666600510919</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.9970522196840974</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9657500705502127</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +3625,34 @@
         <v>0.9854996161898454</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4361065649122033</v>
       </c>
       <c r="D84" t="n">
+        <v>0.5252252702892147</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.3263306779432031</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.258064516129032</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9952499639215757</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.997729416077502</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9603119476597124</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +3663,34 @@
         <v>0.9856203106312087</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4359979072481089</v>
       </c>
       <c r="D85" t="n">
+        <v>0.5302325012518293</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.4928906849039097</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.258064516129032</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.9953407049145397</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.9978319931835649</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9594258489978714</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +3701,34 @@
         <v>0.987630051873893</v>
       </c>
       <c r="C86" t="n">
-        <v>0.278629091183455</v>
+        <v>0.5257076711474881</v>
       </c>
       <c r="D86" t="n">
+        <v>0.6126482937010413</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.3517098391132553</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9945838590796119</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.9976450318836428</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9580397579119233</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +3739,34 @@
         <v>0.9866650695850298</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5256389744049332</v>
       </c>
       <c r="D87" t="n">
+        <v>0.5678953662289985</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.2812010341538476</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9938209664587115</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.996749637665626</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9650809838276905</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +3777,34 @@
         <v>0.9859917244742943</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5255704463959751</v>
       </c>
       <c r="D88" t="n">
+        <v>0.5366375178275835</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.2264527622025843</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.993289770612211</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.9961245649114051</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9699815938231239</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +3815,34 @@
         <v>0.9858376697173431</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.537847241019811</v>
       </c>
       <c r="D89" t="n">
+        <v>0.4239821285376402</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.06858034507362673</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.9931267730685247</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9959290452060005</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9714802479258705</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,13 +3853,34 @@
         <v>0.9871931756685116</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5371094838426973</v>
       </c>
       <c r="D90" t="n">
+        <v>0.4865873892224848</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.01457088957446162</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.994207859975994</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.9971848212156024</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9614828871109893</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1987,13 +3891,34 @@
         <v>0.9871717338792434</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5363768768140269</v>
       </c>
       <c r="D91" t="n">
+        <v>0.4854636777616369</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.2432965699612375</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.9941948447949721</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.9971643418863406</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9615954132079207</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2004,13 +3929,34 @@
         <v>0.9894933973587041</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6207883866921341</v>
       </c>
       <c r="D92" t="n">
+        <v>0.5990978483888836</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.2645247146055693</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.9938641303995884</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.996773299166626</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9646437228756978</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +3967,34 @@
         <v>0.9900853997508947</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6204062124557954</v>
       </c>
       <c r="D93" t="n">
+        <v>0.6277128697112477</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.2199431155930381</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.9943629082773794</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.9973499189095001</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9600269790545484</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +4005,34 @@
         <v>0.9898573471482649</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6200256447286123</v>
       </c>
       <c r="D94" t="n">
+        <v>0.6183489081621123</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.1703288041101831</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.9942096392266071</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.9971659497802496</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9614356136961584</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +4043,34 @@
         <v>0.9878557386571445</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4513167044143294</v>
       </c>
       <c r="D95" t="n">
+        <v>0.5232842784808873</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.2760802453378925</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.9936287710118574</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.99648321514025</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9667957063588241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4081,34 @@
         <v>0.9887183111622193</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4512810564696842</v>
       </c>
       <c r="D96" t="n">
+        <v>0.5637840637635735</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.3884666786855087</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.0615384615384616</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.9943279945911894</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.9972937767233494</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9603266245918292</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4119,34 @@
         <v>0.9875583517131562</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.4512453582694033</v>
       </c>
       <c r="D97" t="n">
+        <v>0.5106562549590865</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.4537809352991061</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>0.258064516129032</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.0615384615384616</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.9934200248429703</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.9962295470961456</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9687096497014823</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +4157,34 @@
         <v>0.9828525666923044</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1036849252461084</v>
+        <v>0.56029485709772</v>
       </c>
       <c r="D98" t="n">
+        <v>0.6920216396453176</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.3363607742226571</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
+        <v>0.2258064516129039</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.0615384615384616</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9966606091175774</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.9940000520166653</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9664542322535288</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +4195,34 @@
         <v>0.9832707470963846</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5591748333217166</v>
       </c>
       <c r="D99" t="n">
+        <v>0.7102389076858954</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.2571934501628697</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.1290322580645196</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.04615384615384621</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.9969689069802584</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9943918602276032</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9633423732977117</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +4233,34 @@
         <v>0.9851810863060856</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5580649322667803</v>
       </c>
       <c r="D100" t="n">
+        <v>0.797559851369581</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.1837646401383088</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0.06451612903225978</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.03076923076923083</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.9984633024678372</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.996166746521631</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9492734477251853</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +4271,34 @@
         <v>0.9778808810652656</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.04452859441865931</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.03225806451612812</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.9998405933901486</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.9978045038706631</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9362916290410209</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +4309,34 @@
         <v>0.9740337071782869</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.02273981314889401</v>
       </c>
       <c r="D102" t="n">
+        <v>0.8282529111722068</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.2227567779523529</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0.06451612903225978</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.6615384615384614</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.9969240592111986</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.9944329643741209</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9629923664167638</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +4347,34 @@
         <v>0.9723839186153446</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2742923152789882</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0.7586767743659759</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.1741398098794855</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.4615384615384615</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.9957605282449243</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9931058516664862</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9734976021779451</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +4385,34 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.9719317582789426</v>
       </c>
       <c r="D104" t="n">
+        <v>0.4550237588267197</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.1896726643824541</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.0967741935483879</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.3846153846153846</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9960137798987808</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9934309547793944</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9709144307873941</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +4423,34 @@
         <v>0.9995044098488705</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.9613311883308102</v>
       </c>
       <c r="D105" t="n">
+        <v>0.4517539517250289</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.06059514243980324</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.1290322580645196</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.3076923076923077</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.9959387720189458</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.9933726752531832</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9713683439790582</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +4461,34 @@
         <v>0.9997999490256538</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.9511287612396013</v>
       </c>
       <c r="D106" t="n">
+        <v>0.4840606761886735</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.1100517130338768</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.1935483870967722</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.2615384615384616</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.9964745252349068</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9940263955588495</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9661813748160424</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +4499,34 @@
         <v>0.9896307417847728</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.8620689391373575</v>
       </c>
       <c r="D107" t="n">
+        <v>0.6337443864798441</v>
+      </c>
+      <c r="E107" t="n">
         <v>0.06992512714493043</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
+        <v>0.1612903225806441</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.2153846153846155</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.9971296291180909</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9948188903417373</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9598946761274347</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +4537,34 @@
         <v>0.9896886816798469</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.8582413300423124</v>
       </c>
       <c r="D108" t="n">
+        <v>0.6372520378089647</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.2265731323222581</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0.1612903225806441</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.2</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.9971740199981618</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.9948985503785387</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9592553680439437</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +4575,34 @@
         <v>0.9872801968526778</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.8544959408870758</v>
       </c>
       <c r="D109" t="n">
+        <v>0.526512813828146</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.2896019127213781</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.1290322580645196</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.1846153846153847</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.9952586711341401</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.9926917570029543</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9767310302830582</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +4613,34 @@
         <v>0.9896151174094895</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6869021473603801</v>
+        <v>0.5609620488123042</v>
       </c>
       <c r="D110" t="n">
+        <v>0.5725633376091968</v>
+      </c>
+      <c r="E110" t="n">
         <v>0.2641593699030962</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
+        <v>0.1290322580645196</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.1538461538461538</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.999902171747469</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9984096947783355</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9747526090468045</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +4651,34 @@
         <v>0.9898373272016392</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.559071232293224</v>
       </c>
       <c r="D111" t="n">
+        <v>0.5819382967194469</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.2804731875458239</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.1290322580645196</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9986336067838363</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9726478689356843</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +4689,34 @@
         <v>0.9883049934135102</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.5571982010124786</v>
       </c>
       <c r="D112" t="n">
+        <v>0.5100611333081445</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.2140293398894549</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.1612903225806441</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9987069057372708</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9972307582780363</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9834387148438586</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +4727,34 @@
         <v>0.9894961333120041</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6671395198862945</v>
       </c>
       <c r="D113" t="n">
+        <v>0.715469545926922</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.07571153649013401</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
+        <v>0.1935483870967722</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.9988594761072263</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.9975102184825454</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9809057856832755</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +4765,34 @@
         <v>0.9895562157489296</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6664640958530516</v>
       </c>
       <c r="D114" t="n">
+        <v>0.7184692526016335</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.1534945131624844</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.1935483870967722</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.998853419161259</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9976008059658086</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.979874732390936</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +4803,34 @@
         <v>0.9892051087495881</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.6657928511197898</v>
       </c>
       <c r="D115" t="n">
+        <v>0.7024070999775393</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.2038594155648589</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
+        <v>0.2258064516129039</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.9985228443052774</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.9973092113345309</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9818776518647443</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +4841,34 @@
         <v>0.9850576326392908</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3853663567467568</v>
       </c>
       <c r="D116" t="n">
+        <v>0.5797702477465246</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.1078235697140766</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.2258064516129039</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.9988606903305294</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.9977938574840879</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9777341744656977</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +4879,34 @@
         <v>0.9854063261166083</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3852363498985255</v>
       </c>
       <c r="D117" t="n">
+        <v>0.5930508143198971</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.2444482692276145</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.1935483870967722</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.1384615384615385</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.9990359184503917</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.9980855265928924</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9751247411652975</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +4917,34 @@
         <v>0.9858683419125577</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3851058916715364</v>
       </c>
       <c r="D118" t="n">
+        <v>0.6116437914262436</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.0825087633232974</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.1935483870967722</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.1230769230769231</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9993043748508661</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.998482817439391</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9716828912948247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +4955,34 @@
         <v>0.9851557359317356</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3597191424812062</v>
       </c>
       <c r="D119" t="n">
+        <v>0.4765668686239572</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.1926279730688892</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
+        <v>0.1612903225806441</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.1076923076923077</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.9980196126857103</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.9970653603225961</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9826292188753706</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +4993,34 @@
         <v>0.984919735469224</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3591980326968569</v>
       </c>
       <c r="D120" t="n">
+        <v>0.462786105275483</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.3775200261392984</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
+        <v>0.1290322580645196</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.9977443900911172</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.9968226702045127</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9842700119624287</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +5031,34 @@
         <v>0.985312911327368</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2742923152789882</v>
+        <v>0.3586724710518523</v>
       </c>
       <c r="D121" t="n">
+        <v>0.4782006837676019</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.4342934994517286</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0.0967741935483879</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.09230769230769231</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.9979718306455284</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.9971636194093563</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.981289234280188</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +5072,31 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.4079363369724504</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.1290322580645196</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.07692307692307693</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.9930220056332958</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.996536446132341</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9807111507994541</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +5110,31 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.2447512174724679</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.1290322580645196</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.04615384615384621</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.9927233403986165</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.9961695643559563</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9834275684871278</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +5148,31 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.2219290711988536</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
+        <v>0.1612903225806441</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.03076923076923083</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.9911066272179969</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9942655179662935</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9983337449731385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +5186,31 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.0025840470772025</v>
       </c>
-      <c r="E125" t="n">
-        <v>0</v>
+      <c r="F125" t="n">
+        <v>0.1935483870967722</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.9944956527615186</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9982007542252914</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9669481793166751</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="126">
@@ -2585,10 +5224,31 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.02717293657661712</v>
       </c>
-      <c r="E126" t="n">
-        <v>0</v>
+      <c r="F126" t="n">
+        <v>0.258064516129032</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.992650667152492</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.9960309948663526</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.983965977254543</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="127">
@@ -2602,10 +5262,31 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.257309737740098</v>
       </c>
-      <c r="E127" t="n">
-        <v>0</v>
+      <c r="F127" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.9909123498035324</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.9939859258176579</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +5300,31 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.2716846568714628</v>
       </c>
-      <c r="E128" t="n">
-        <v>0</v>
+      <c r="F128" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.9958090459464459</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9996806237504183</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9546659025765803</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +5338,31 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.1928000425180111</v>
       </c>
-      <c r="E129" t="n">
-        <v>0</v>
+      <c r="F129" t="n">
+        <v>0.2903225806451637</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.9941645975668771</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.9977455742032486</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9698313082519218</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +5376,31 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.2186608676624533</v>
       </c>
-      <c r="E130" t="n">
-        <v>0</v>
+      <c r="F130" t="n">
+        <v>0.2258064516129039</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.993815420540254</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9973216654516615</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9730170184310524</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="131">
@@ -2670,10 +5414,31 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.2190729911806084</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.9936592828625714</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.9971231783217135</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9744176722955573</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="132">
@@ -2687,10 +5452,31 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.3842462459056604</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.9949261735856471</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.9985848455143033</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9626555518560601</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="133">
@@ -2708,6 +5494,27 @@
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.9951256303983574</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.9988016277841398</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9607671626147806</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/SD/df.xlsx
+++ b/covid19_drdfm/data/example-output/SD/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:S132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,55 +447,90 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>TBill1yr</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RPFI</t>
+          <t>TBill10yr</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FixAss</t>
+          <t>Employment1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>Employment2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PartR</t>
+          <t>Cons1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>UR</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cons3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Cons5</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CPIU</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>PCE</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cases5</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cases2</t>
+        </is>
+      </c>
       <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Cases3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Cases4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cases1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Hosp1</t>
         </is>
@@ -503,5017 +538,7730 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8170711884503437</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.8237297960071758</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.496813327739384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2923076923076923</v>
+        <v>0.5911085165725912</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.4804248097350872</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4967522167341814</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L2" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9868682461781157</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7032270994259294</v>
+        <v>0.4613095238095237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4737045229118747</v>
+        <v>0.8135122768330407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2767911448733329</v>
+        <v>0.8217942005629378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9677419354838719</v>
+        <v>0.5238119310045373</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.6131543266609899</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9943589385115211</v>
+        <v>0.4783596646895119</v>
       </c>
       <c r="I3" t="n">
-        <v>0.99701172167969</v>
+        <v>0.4753169610054069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9679389035394174</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L3" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9870441617067307</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7009810269017539</v>
+        <v>0.425595238095238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4821249939228794</v>
+        <v>0.8018882440272991</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1984202670442547</v>
+        <v>0.8158387327196476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9354838709677438</v>
+        <v>0.574206162866773</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.6546751699437526</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9945021362525528</v>
+        <v>0.4580164258916395</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9971728378168827</v>
+        <v>0.4362124408304384</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K4" t="n">
-        <v>0.966573298315848</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L4" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9854362437322768</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5797826902586053</v>
+        <v>0.3511904761904762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4569405204233162</v>
+        <v>0.8182644828456356</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08656199145688839</v>
+        <v>0.8168747967004858</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9032258064516121</v>
+        <v>0.7849235737417173</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.8296206721907194</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9947672778115013</v>
+        <v>0.2823120937051792</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9974762822290354</v>
+        <v>0.2759848128333319</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9640820130383683</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L5" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9868274138886178</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5786587501534171</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5210079104301517</v>
+        <v>0.8137537407112719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1400310125675917</v>
+        <v>0.8153773111977091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9032258064516121</v>
+        <v>0.7295080791184961</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.783098357252388</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9958682181731456</v>
+        <v>0.3408982227867237</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9987548264706965</v>
+        <v>0.316837350964585</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9538741718760513</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L6" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9864722301200715</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5775465126226558</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.504306321230209</v>
+        <v>0.8032999920192481</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2458936684889089</v>
+        <v>0.8184443536062311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8709677419354875</v>
+        <v>0.6530600852908336</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.7190781459894866</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9955816851468706</v>
+        <v>0.3934463727922193</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9984148300883421</v>
+        <v>0.3735877862041102</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K7" t="n">
-        <v>0.956476820529933</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L7" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9771003779969896</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06436385797474525</v>
+        <v>0.3154761904761905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08695502661972937</v>
+        <v>0.8069065484055066</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2415150964667461</v>
+        <v>0.8197213812617881</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8709677419354875</v>
+        <v>0.3911169596976007</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.5006957837807797</v>
       </c>
       <c r="H8" t="n">
-        <v>0.995185475396468</v>
+        <v>0.6527359268372354</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9979469548277106</v>
+        <v>0.5704963034279991</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9600922983102562</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L8" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9752647083228541</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05806907334779704</v>
+        <v>0.3273809523809523</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.834591805387279</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1990315952374694</v>
+        <v>0.8199184598513599</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8709677419354875</v>
+        <v>0.417675123893114</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.5224062748949677</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9938221821688548</v>
+        <v>0.6040928049754837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9963509634584204</v>
+        <v>0.5494444501182414</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9726370191705382</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L9" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9753182230985611</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05158099855586923</v>
+        <v>0.3363095238095238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0003290716849049802</v>
+        <v>0.8210965500458856</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1903645527673143</v>
+        <v>0.8189585210915629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8709677419354875</v>
+        <v>0.4223614787769255</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.5259201648429114</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9939629318159511</v>
+        <v>0.506728251696605</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9965096290030682</v>
+        <v>0.5449245868322847</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9712958398905062</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L10" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9943879850865608</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.306547619047619</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8894476881173518</v>
+        <v>0.8033629658599835</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2656550010191824</v>
+        <v>0.8191157606636335</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8709677419354875</v>
+        <v>0.738121601781495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.7883114030251837</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9939896311834069</v>
+        <v>0.3006557725101743</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9965353093646726</v>
+        <v>0.3053631904044893</v>
       </c>
       <c r="J11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9710078867636006</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L11" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9962837117248686</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9944724969798733</v>
+        <v>0.3273809523809523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9788548120863076</v>
+        <v>0.8068337204551878</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3462302058487884</v>
+        <v>0.8223201170577645</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8387096774193559</v>
+        <v>0.6918400640712188</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2461538461538461</v>
+        <v>0.7494199045998772</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9956380546565073</v>
+        <v>0.37413804795302</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9984529282936044</v>
+        <v>0.3393635314024407</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9557458204525275</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L12" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B13" t="n">
-        <v>0.995810232662944</v>
+        <v>0.02136752136752136</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9890660359218981</v>
+        <v>0.3839285714285714</v>
       </c>
       <c r="D13" t="n">
-        <v>0.958626076106208</v>
+        <v>0.8055543580226956</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4094646715004119</v>
+        <v>0.8202058936939317</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8064516129032278</v>
+        <v>0.3870478151901801</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2461538461538461</v>
+        <v>0.4555843490075107</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9953989930665867</v>
+        <v>0.4730736920152049</v>
       </c>
       <c r="I13" t="n">
-        <v>0.998168699772593</v>
+        <v>0.4766357901129943</v>
       </c>
       <c r="J13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9579119267895568</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L13" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9866288275135294</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.586752259017648</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5131690086300654</v>
+        <v>0.8095017709632395</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3414089456541139</v>
+        <v>0.8238479088897778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7741935483870996</v>
+        <v>0.2360446955620404</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2461538461538461</v>
+        <v>0.329896749964439</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9947726047475365</v>
+        <v>0.6349860070635606</v>
       </c>
       <c r="I14" t="n">
-        <v>0.996021278131152</v>
+        <v>0.5903560713844669</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9666573187698657</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L14" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9856342490880072</v>
+        <v>0.02136752136752136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5860205673566089</v>
+        <v>0.3988095238095238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4670372565743995</v>
+        <v>0.805262264353838</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25355811726861</v>
+        <v>0.8183347319329395</v>
       </c>
       <c r="F15" t="n">
-        <v>0.741935483870968</v>
+        <v>0.6684530655144282</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.6897187024494806</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9939813461023632</v>
+        <v>0.2471689513070562</v>
       </c>
       <c r="I15" t="n">
-        <v>0.99510272261563</v>
+        <v>0.2632377374361727</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9739022526346681</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L15" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B16" t="n">
-        <v>0.988467873482236</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5852960532601483</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5979719131128902</v>
+        <v>0.8185903306715626</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2052343999851028</v>
+        <v>0.8200477520852829</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7096774193548399</v>
+        <v>0.6214930478182272</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.6506151279933647</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9962316842968993</v>
+        <v>0.2813645162752761</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9977323888800622</v>
+        <v>0.2983423793122137</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K16" t="n">
-        <v>0.953062076468007</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L16" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9867751665886449</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5236346045394227</v>
+        <v>0.3898809523809523</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5945171236907036</v>
+        <v>0.815943793632123</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1607270861668122</v>
+        <v>0.8211815955429621</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7096774193548399</v>
+        <v>0.4959201546498004</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.5460908408711851</v>
       </c>
       <c r="H17" t="n">
-        <v>0.995982922383422</v>
+        <v>0.3993518297214528</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9974466104558838</v>
+        <v>0.3928492394475876</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9552985360150279</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L17" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9859538249879723</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5234705187071165</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5561242575417651</v>
+        <v>0.8112013334931283</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02668468010345873</v>
+        <v>0.8196578374857798</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7096774193548399</v>
+        <v>0.3645710670110145</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.4367598225620392</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9953243542867891</v>
+        <v>0.4918638127890506</v>
       </c>
       <c r="I18" t="n">
-        <v>0.996682721566502</v>
+        <v>0.4917244055485628</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9613194141187007</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L18" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9850945675916684</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5233071902834195</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5159783552001674</v>
+        <v>0.8165747062094404</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2442050669442393</v>
+        <v>0.8173653310839419</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6774193548387082</v>
+        <v>0.443507058913697</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2153846153846155</v>
+        <v>0.5024261971094899</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9946357069818934</v>
+        <v>0.4719810427311055</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9958837039175842</v>
+        <v>0.4317047913931817</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9676185898792923</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L19" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9858544198824891</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5400327852829484</v>
+        <v>0.630952380952381</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4769126538054654</v>
+        <v>0.8091941800468382</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2402951670397633</v>
+        <v>0.8223289524283204</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6774193548387082</v>
+        <v>0.4174022834447659</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2153846153846155</v>
+        <v>0.4806788227018557</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9950434005969891</v>
+        <v>0.4921920362000497</v>
       </c>
       <c r="I20" t="n">
-        <v>0.996363609739512</v>
+        <v>0.4510590633598667</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9637948380358665</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L20" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B21" t="n">
-        <v>0.985685105223959</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5390749272057044</v>
+        <v>0.6517857142857143</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4685213209668389</v>
+        <v>0.8102815037840168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2230573269855229</v>
+        <v>0.8198728129715163</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.5165567398248518</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2153846153846155</v>
+        <v>0.5631711511821557</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9949035078490781</v>
+        <v>0.3976005690238599</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9962046746427933</v>
+        <v>0.3757619736740684</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9650278671739611</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L21" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9863376918449059</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5381240580636671</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="D22" t="n">
-        <v>0.498150714237989</v>
+        <v>0.7748893508307949</v>
       </c>
       <c r="E22" t="n">
-        <v>0.166920023182301</v>
+        <v>0.8213239601066769</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6129032258064555</v>
+        <v>0.4029790190227596</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2</v>
+        <v>0.46862995978012</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9954166812195209</v>
+        <v>0.4050553748719518</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9968075486247194</v>
+        <v>0.4612196127661135</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9602308122521267</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L22" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9843184590781249</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4511812931641361</v>
+        <v>0.625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4005695758728437</v>
+        <v>0.8412095355145293</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2701144801522594</v>
+        <v>0.8235377070539099</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5806451612903238</v>
+        <v>0.4138550488790234</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2</v>
+        <v>0.477658154554801</v>
       </c>
       <c r="H23" t="n">
-        <v>0.994820823746987</v>
+        <v>0.4666731454969064</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9961166186247231</v>
+        <v>0.4526349185513692</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9656751792246812</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L23" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B24" t="n">
-        <v>0.984392693338956</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4500417054098162</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4029133234542104</v>
+        <v>0.8177730833014433</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3152016040433849</v>
+        <v>0.8145750700290521</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5806451612903238</v>
+        <v>0.3760321108322308</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1846153846153847</v>
+        <v>0.4461596941318963</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9948738321925559</v>
+        <v>0.504271433281398</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9961825988659612</v>
+        <v>0.480853177227112</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9651282623410788</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L24" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9841473643561247</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4489001324552864</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3904718298936434</v>
+        <v>0.8203859482666936</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4558955464589535</v>
+        <v>0.8198329027452651</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6129032258064555</v>
+        <v>0.4283257964392779</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1846153846153847</v>
+        <v>0.468352392495754</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9946729850950272</v>
+        <v>0.493934346505972</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9959524004631578</v>
+        <v>0.4748034148962615</v>
       </c>
       <c r="J25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9669260016326096</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L25" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9899122952896006</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7706566902414165</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7539190312873689</v>
+        <v>0.8063658967333401</v>
       </c>
       <c r="E26" t="n">
-        <v>0.333307729531285</v>
+        <v>0.8186518557405352</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6129032258064555</v>
+        <v>0.5419032573657562</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1846153846153847</v>
+        <v>0.562961453229325</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9950940202586995</v>
+        <v>0.4316850960443767</v>
       </c>
       <c r="I26" t="n">
-        <v>0.996114590095561</v>
+        <v>0.3884346195011176</v>
       </c>
       <c r="J26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9665405811298221</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L26" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9906138658606791</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7688278629884534</v>
+        <v>0.625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.786187656232195</v>
+        <v>0.8254627173521412</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2435655609722554</v>
+        <v>0.8236449003660327</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.4179713426063082</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.4599167206108158</v>
       </c>
       <c r="H27" t="n">
-        <v>0.995680634688192</v>
+        <v>0.4759716818008413</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9968060161011242</v>
+        <v>0.4815581995385124</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9610381658735081</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L27" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9897578234479245</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7670225464271512</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7464002524047624</v>
+        <v>0.8076266774238325</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2170752063872309</v>
+        <v>0.8249493924630638</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.4227018632237888</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.4639429077981861</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9950290656500622</v>
+        <v>0.467607911577312</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9960529401555825</v>
+        <v>0.4774535384334815</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9669709174555586</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L28" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9873415895146681</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6580752801441139</v>
+        <v>0.5773809523809523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4742790210082277</v>
+        <v>0.8126222115907127</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1084437834901044</v>
+        <v>0.8205458782403786</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.4409455741977659</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.4792139145879605</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9950483330608199</v>
+        <v>0.4694354679379368</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9960823645098994</v>
+        <v>0.4631389551986168</v>
       </c>
       <c r="J29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9667094161832184</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L29" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9874528769894533</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6561116391774811</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4796845518725111</v>
+        <v>0.822080809866217</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04495510135212435</v>
+        <v>0.8257039822361284</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.4920592379697837</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.5218382638365858</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9951381108807422</v>
+        <v>0.4420601940130754</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9961939687383287</v>
+        <v>0.4239846246189448</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9657974574043684</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L30" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B31" t="n">
-        <v>0.987779944536664</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6541790147720429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4950692071639683</v>
+        <v>0.8123850160291054</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2569507362829783</v>
+        <v>0.8221142682634116</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.4585513056812917</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.4940406085048483</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9953993145576944</v>
+        <v>0.4328522352647602</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9965054778402285</v>
+        <v>0.4487866930954535</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9633029987871482</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L31" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9823164747191337</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3831256636519635</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2661782085722706</v>
+        <v>0.8116286777528561</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2315706478410685</v>
+        <v>0.8196616635690087</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.5997705895551484</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.6116485869209072</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9952194035892123</v>
+        <v>0.3723022077765162</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9963023258203161</v>
+        <v>0.3415369639278926</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9648830981661997</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L32" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9832362912040586</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C33" t="n">
-        <v>0.379811041359327</v>
+        <v>0.5684523809523809</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3064589450522511</v>
+        <v>0.8158018120719297</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2061807625340628</v>
+        <v>0.8245558462563858</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.5661655380475408</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.5837687083100959</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9959504877898057</v>
+        <v>0.3832166305801797</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9971618335049719</v>
+        <v>0.3664175283812016</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9580503926351426</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L33" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9830088366160736</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3764662594405501</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2936197551444125</v>
+        <v>0.8300547056264846</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1803721512266706</v>
+        <v>0.8220236597927636</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6774193548387082</v>
+        <v>0.6093780024196311</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.6198149530414203</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9957701846767207</v>
+        <v>0.3705152434098531</v>
       </c>
       <c r="I34" t="n">
-        <v>0.996958080577356</v>
+        <v>0.3332441322955792</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9596354928650028</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L34" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9843912389763748</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4483929522760918</v>
+        <v>0.5089285714285714</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4472056667061405</v>
+        <v>0.8061260573769912</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2705348590361562</v>
+        <v>0.8236746516212029</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6774193548387082</v>
+        <v>0.6534723163767494</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.6565943853000978</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9959904247857578</v>
+        <v>0.2910385964014466</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9972215152929835</v>
+        <v>0.2994073764003015</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9575220698412108</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L35" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9846812314810857</v>
+        <v>0.03418803418803418</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4475017974959454</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4599552863871794</v>
+        <v>0.8144364776464362</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4349513119728748</v>
+        <v>0.8233744488067245</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6774193548387082</v>
+        <v>0.7196704927443123</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.7117677754482916</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9962153179736744</v>
+        <v>0.2342588880723614</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9974903083212233</v>
+        <v>0.2488690215870865</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9553663852445861</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L36" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9851162183309804</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4466088528898878</v>
+        <v>0.375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4794093222051089</v>
+        <v>0.8257177919739254</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3821709698458895</v>
+        <v>0.8201488230902793</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6774193548387082</v>
+        <v>0.9952901379135592</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9965555050272864</v>
+        <v>0.07870096975326518</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9978935288633971</v>
+        <v>0.04537957508667029</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9521466689884892</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L37" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B38" t="n">
-        <v>0.991393018555389</v>
+        <v>0.03632478632478632</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5556604666921346</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7224845686019766</v>
+        <v>0.8034061642763356</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3415825228444795</v>
+        <v>0.8229426152859306</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6774193548387082</v>
+        <v>0.4481902037399139</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.5444378055253252</v>
       </c>
       <c r="H38" t="n">
-        <v>0.998354141925435</v>
+        <v>0.4991270461619542</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0.4583112661122414</v>
       </c>
       <c r="J38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9391826878446033</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L38" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9877917243236148</v>
+        <v>0.04273504273504273</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5554981992742091</v>
+        <v>0.4226190476190476</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5563397900546089</v>
+        <v>0.8098794065368862</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2406521685205525</v>
+        <v>0.8161387989449225</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.4240047993628101</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.5240427902497715</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9954934027149097</v>
+        <v>0.5066174053952723</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9966706407825117</v>
+        <v>0.4760612826169863</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K39" t="n">
-        <v>0.965489893197179</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L39" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9876217748226509</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5553365782833861</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5489173710093087</v>
+        <v>0.8204703357769915</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1940900340808913</v>
+        <v>0.8233488059890725</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.5234449348087109</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.6065303401707747</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9953589958753968</v>
+        <v>0.4289422565245661</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9965215890549495</v>
+        <v>0.4003838982043652</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9666207178331913</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L40" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9870267502304884</v>
+        <v>0.04059829059829059</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5191690556526207</v>
+        <v>0.4702380952380952</v>
       </c>
       <c r="D41" t="n">
-        <v>0.489496344197307</v>
+        <v>0.8177257676594207</v>
       </c>
       <c r="E41" t="n">
-        <v>0.004994594612462322</v>
+        <v>0.8256853374382761</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.3816777515388139</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.4882898216238597</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9958692186987508</v>
+        <v>0.5349905266530876</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9971244281140031</v>
+        <v>0.5070034216096323</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9617994349538268</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L41" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9860957240740617</v>
+        <v>0.04914529914529914</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5189665064669197</v>
+        <v>0.5178571428571428</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4465525826415619</v>
+        <v>0.8069081625681082</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1788476025582867</v>
+        <v>0.8184754748785685</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6451612903225801</v>
+        <v>0.4202414350778069</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.5201214674750024</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9951219934079208</v>
+        <v>0.5101022712614719</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9962602976723656</v>
+        <v>0.4773400819806607</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9685919911023991</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L42" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9863479800757787</v>
+        <v>0.0534188034188034</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5187649065110128</v>
+        <v>0.5059523809523809</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4583495096445215</v>
+        <v>0.8074361484750139</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2638817498695101</v>
+        <v>0.8239159639196696</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6129032258064555</v>
+        <v>0.5166643163861172</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.600105444162938</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9953150310060733</v>
+        <v>0.4545412938591608</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9964929310752416</v>
+        <v>0.4039482794265793</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9667021880574344</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L43" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B44" t="n">
-        <v>0.987732877118478</v>
+        <v>0.0705128205128205</v>
       </c>
       <c r="C44" t="n">
-        <v>0.590797308534841</v>
+        <v>0.4613095238095237</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5664361823019488</v>
+        <v>0.8192830710681206</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1869401721371576</v>
+        <v>0.8179084431114235</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6129032258064555</v>
+        <v>0.5867445110406079</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.6581696732053435</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9958098187538911</v>
+        <v>0.3796449961608567</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9970774734127471</v>
+        <v>0.3504672440466652</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9620265158749708</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L44" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9881864181755687</v>
+        <v>0.06837606837606836</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5905509649962073</v>
+        <v>0.4613095238095237</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5876817697776895</v>
+        <v>0.7944628639571398</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2673996879603596</v>
+        <v>0.8176684171428668</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5806451612903238</v>
+        <v>0.715836834282659</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.7653456486597738</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9961673634858157</v>
+        <v>0.2738033829246919</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9975018209080251</v>
+        <v>0.2523886087700005</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9586193262337169</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L45" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9890272465585122</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5903054348496281</v>
+        <v>0.431547619047619</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6268443680346696</v>
+        <v>0.8217058068666531</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1690781374455284</v>
+        <v>0.8248840524521739</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5806451612903238</v>
+        <v>0.5988851092612961</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.6677682689552602</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9968326682362012</v>
+        <v>0.4264502145385787</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9982850889800915</v>
+        <v>0.3402699778727123</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9523708961543608</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L46" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9909213164896956</v>
+        <v>0.09188034188034186</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6548301019316398</v>
+        <v>0.488095238095238</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7569792848725709</v>
+        <v>0.8145543568902583</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2363163490711443</v>
+        <v>0.8211576163575424</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5483870967741957</v>
+        <v>0.5324457238762941</v>
       </c>
       <c r="G47" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.6122291006755762</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9962152928447381</v>
+        <v>0.4361074937639563</v>
       </c>
       <c r="I47" t="n">
-        <v>0.997571969778196</v>
+        <v>0.3899771723142749</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9579696750175393</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L47" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9904442541889684</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6531911624404501</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7350319270926521</v>
+        <v>0.8301987447499016</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2998080533577057</v>
+        <v>0.8230098564771564</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5483870967741957</v>
+        <v>0.6557303555367002</v>
       </c>
       <c r="G48" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.7145788876495276</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9958613563441323</v>
+        <v>0.3291286649421136</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9971660760405542</v>
+        <v>0.2962969840750834</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9611364394003525</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L48" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9912128792887085</v>
+        <v>0.1047008547008547</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6515765512864212</v>
+        <v>0.4374999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7707207811140175</v>
+        <v>0.8252302269764712</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5189598165400107</v>
+        <v>0.8168565564594282</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5806451612903238</v>
+        <v>0.5835516906920294</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.671762953044564</v>
       </c>
       <c r="H49" t="n">
-        <v>0.996496655046944</v>
+        <v>0.3582333302100829</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9979140731544557</v>
+        <v>0.3836131576258782</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9551682272165031</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L49" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9795577609426185</v>
+        <v>0.1025641025641025</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2179797793756399</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2379253329618874</v>
+        <v>0.8168785545332913</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3712774178393858</v>
+        <v>0.8206159793291865</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5806451612903238</v>
+        <v>0.6813059167118125</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.7526940364267338</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9946846773365124</v>
+        <v>0.317139331932879</v>
       </c>
       <c r="I50" t="n">
-        <v>0.997601163900217</v>
+        <v>0.3090349245371968</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9607309983917958</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L50" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9801444494222538</v>
+        <v>0.1303418803418803</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2145811317510423</v>
+        <v>0.3779761904761905</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2637648592066592</v>
+        <v>0.8166172624762037</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2432400746546668</v>
+        <v>0.8223074009416873</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5806451612903238</v>
+        <v>0.4250052752421541</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.5389882291424076</v>
       </c>
       <c r="H51" t="n">
-        <v>0.995196885183195</v>
+        <v>0.527342817213182</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9981926279235881</v>
+        <v>0.5020503700685595</v>
       </c>
       <c r="J51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9559797406527168</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L51" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9784066276441539</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2111099404182025</v>
+        <v>0.3541666666666666</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1820165646535209</v>
+        <v>0.8019526135529373</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1791087707261851</v>
+        <v>0.8197387300407529</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5483870967741957</v>
+        <v>0.3381038318559079</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.4662594875366697</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9938631639771643</v>
+        <v>0.5600276253743403</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9966308139540744</v>
+        <v>0.5670467174847416</v>
       </c>
       <c r="J52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K52" t="n">
-        <v>0.9682764402574415</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L52" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9871405828036147</v>
+        <v>0.1153846153846153</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5702184013069356</v>
+        <v>0.3541666666666666</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5428687199594108</v>
+        <v>0.8089540979698909</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0275864029228233</v>
+        <v>0.8141278214900715</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5483870967741957</v>
+        <v>0.4954914491953876</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.5968304972053151</v>
       </c>
       <c r="H53" t="n">
-        <v>0.993412604851824</v>
+        <v>0.4911291353516724</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9960992946375503</v>
+        <v>0.4474101839558776</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9724172516696103</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L53" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9881601820105766</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5700444041272102</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="D54" t="n">
-        <v>0.590467717901734</v>
+        <v>0.8100965821959163</v>
       </c>
       <c r="E54" t="n">
-        <v>0.145915544988168</v>
+        <v>0.8220806842831399</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5161290322580641</v>
+        <v>0.4579862547692273</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.5652177256182735</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9942356554777858</v>
+        <v>0.5104932049111612</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9970535393045784</v>
+        <v>0.4750798724793894</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9647954030113071</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L54" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9879011361754688</v>
+        <v>0.09829059829059827</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5698709075460048</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5788989464901042</v>
+        <v>0.8183967831948311</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2996142629395721</v>
+        <v>0.8263757316783266</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5161290322580641</v>
+        <v>0.5868561924116014</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.672065279254897</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9940425885453623</v>
+        <v>0.3560972505717873</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9968225054880101</v>
+        <v>0.3770002146735688</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9665581937920824</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L55" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9897248060507798</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6506747708820242</v>
+        <v>0.2797619047619048</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6721017379599356</v>
+        <v>0.8147146482922014</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2752258901375228</v>
+        <v>0.818119570113392</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4838709677419359</v>
+        <v>0.4916307957976884</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.592426803292033</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9947169183949818</v>
+        <v>0.4669182200412889</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9976033733736265</v>
+        <v>0.4483057036224152</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9603096985690595</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L56" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9890744957073162</v>
+        <v>0.1153846153846153</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6501158393872015</v>
+        <v>0.300595238095238</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6426455049556629</v>
+        <v>0.8063220843276583</v>
       </c>
       <c r="E57" t="n">
-        <v>0.200639758595858</v>
+        <v>0.8237947186483667</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4516129032258078</v>
+        <v>0.4701137102120087</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.5741319632458246</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9942228799365836</v>
+        <v>0.5033182562553414</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9970213560393755</v>
+        <v>0.4639043941577581</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9648524551104239</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L57" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9889082572024572</v>
+        <v>0.1303418803418803</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6495599367297102</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6355723281365233</v>
+        <v>0.8080478076572463</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1510512154546906</v>
+        <v>0.8165303388546008</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4516129032258078</v>
+        <v>0.427926048093697</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.5386393672817309</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9941131088808379</v>
+        <v>0.4901319569909405</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9968876529027257</v>
+        <v>0.4951326378303469</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9658462222735239</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L58" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9848945221892067</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4646521214204528</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4361579907659955</v>
+        <v>0.8124965697135286</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2690493955742209</v>
+        <v>0.8169869428260327</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4193548387096762</v>
+        <v>0.5860409432710784</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.6698410188803553</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9938955496083338</v>
+        <v>0.4353786391004341</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9966282643868242</v>
+        <v>0.3749590851079466</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9678357228058145</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L59" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B60" t="n">
-        <v>0.985937399242734</v>
+        <v>0.1752136752136752</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4643104324711352</v>
+        <v>0.5565476190476191</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4839521322346508</v>
+        <v>0.8139368519997429</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3430097150086387</v>
+        <v>0.8207709777432542</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3870967741935516</v>
+        <v>0.4598561769991078</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.5644548029045531</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9947222734815092</v>
+        <v>0.4986856164755484</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9975871179383207</v>
+        <v>0.4696874400129951</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9601796615295174</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L60" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9851147555301939</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4639686731875234</v>
+        <v>0.5386904761904763</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4454164846666762</v>
+        <v>0.8067712217436585</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5149476924133661</v>
+        <v>0.8212166282063189</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3548387096774199</v>
+        <v>0.3376531322232236</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.4618661990913898</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9940667462483728</v>
+        <v>0.5700337409100718</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9968169298634303</v>
+        <v>0.5945197158673194</v>
       </c>
       <c r="J61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9662146507041421</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L61" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9871505230436742</v>
+        <v>0.1645299145299145</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6501859753753982</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5489904012142598</v>
+        <v>0.8182238647215494</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3067779291788831</v>
+        <v>0.8202493854314398</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3870967741935516</v>
+        <v>0.5264382278846255</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.6185551805832115</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9933552250823668</v>
+        <v>0.454856946818932</v>
       </c>
       <c r="I62" t="n">
-        <v>0.996067187418036</v>
+        <v>0.4509475508562953</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9741675116419231</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L62" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9883747944381096</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6496285745329416</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6061132513400365</v>
+        <v>0.8270024494154147</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2390252649926611</v>
+        <v>0.8173434920035634</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3870967741935516</v>
+        <v>0.7069279608631276</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.7683458187817989</v>
       </c>
       <c r="H63" t="n">
-        <v>0.994342627755744</v>
+        <v>0.3578150554331625</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9972123085697379</v>
+        <v>0.3136462231982902</v>
       </c>
       <c r="J63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K63" t="n">
-        <v>0.9650207628940169</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L63" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9895448507268076</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6490742005440343</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6607237015948318</v>
+        <v>0.813441790037817</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1937172887240519</v>
+        <v>0.8198888825138224</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3870967741935516</v>
+        <v>0.4666156688186808</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.5679532002543284</v>
       </c>
       <c r="H64" t="n">
-        <v>0.995286753036703</v>
+        <v>0.4379823293781138</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9983070149523757</v>
+        <v>0.494451217290218</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9562735189784204</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L64" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9826296457361958</v>
+        <v>0.2286324786324786</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4005340829130422</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3528707087357045</v>
+        <v>0.8005818281819526</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03828970228867895</v>
+        <v>0.8206386649315868</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3870967741935516</v>
+        <v>0.6815167173620424</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.7463903752839371</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9940369438912495</v>
+        <v>0.3433451879440547</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9968424970013627</v>
+        <v>0.331147622564597</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K65" t="n">
-        <v>0.967792310613265</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L65" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9840412609132497</v>
+        <v>0.2457264957264957</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3994136117967252</v>
+        <v>0.4672619047619048</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4172323887065344</v>
+        <v>0.8154578610815599</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1077397968215371</v>
+        <v>0.8199435654468733</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4193548387096762</v>
+        <v>0.572505505885311</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.655275017301442</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9951604205746634</v>
+        <v>0.410549347079741</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9981465592361854</v>
+        <v>0.4127100526845274</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K66" t="n">
-        <v>0.9573885046215503</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L66" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9833273750059589</v>
+        <v>0.25</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3982854331891656</v>
+        <v>0.5059523809523809</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3832187799351626</v>
+        <v>0.8155122669478176</v>
       </c>
       <c r="E67" t="n">
-        <v>0.251060829337223</v>
+        <v>0.8193649578410942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4193548387096762</v>
+        <v>0.6323525994793515</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.7046868957371357</v>
       </c>
       <c r="H67" t="n">
-        <v>0.994595109901581</v>
+        <v>0.3952852113377378</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9974806660592865</v>
+        <v>0.366630055938128</v>
       </c>
       <c r="J67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K67" t="n">
-        <v>0.9625847141759466</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L67" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9836925946078967</v>
+        <v>0.2521367521367521</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3205706240938403</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3574301784856681</v>
+        <v>0.8046915430680994</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2398494038312665</v>
+        <v>0.8175015014051229</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3870967741935516</v>
+        <v>0.4471573991868066</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.5501810192990673</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9949101370186373</v>
+        <v>0.5609150233935125</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9978417800738351</v>
+        <v>0.5057985423575317</v>
       </c>
       <c r="J68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K68" t="n">
-        <v>0.9596490326494385</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L68" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9824784445159067</v>
+        <v>0.2628205128205128</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3191213185655901</v>
+        <v>0.4702380952380952</v>
       </c>
       <c r="D69" t="n">
-        <v>0.299671901356587</v>
+        <v>0.8335959615893236</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2260035232727512</v>
+        <v>0.8158701824219891</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3870967741935516</v>
+        <v>0.3262315803244345</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.4491641292540402</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9939475745447625</v>
+        <v>0.6199503001817661</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9967126135843541</v>
+        <v>0.5963943696088615</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9685152302080455</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L69" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9816859180769291</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3176530121481123</v>
+        <v>0.5178571428571428</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2614107109253322</v>
+        <v>0.7839068529739605</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1572500682975594</v>
+        <v>0.8179849777581502</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3548387096774199</v>
+        <v>0.5229725352026735</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.6125115809191878</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9933200623009718</v>
+        <v>0.4163665091399184</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9959743576050992</v>
+        <v>0.4468423272355074</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9742869427779088</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L70" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9836188044207614</v>
+        <v>0.3226495726495726</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4467835215823885</v>
+        <v>0.5148809523809524</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3207191785387242</v>
+        <v>0.8136231473531693</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2442393787498847</v>
+        <v>0.8210746405241639</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3225806451612918</v>
+        <v>0.5057738310947422</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.5978244388471916</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9943487231459185</v>
+        <v>0.5054531287823583</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9971681404748164</v>
+        <v>0.4590309533742618</v>
       </c>
       <c r="J71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K71" t="n">
-        <v>0.9647592257847142</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L71" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9835102671114052</v>
+        <v>0.3525641025641025</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4440651573949227</v>
+        <v>0.5297619047619048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3139181912875395</v>
+        <v>0.8103141008001655</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4049816999836528</v>
+        <v>0.817819832281291</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.5228526327808818</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.6116670888867251</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9942619535947481</v>
+        <v>0.4790655403947179</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9970608032716221</v>
+        <v>0.4453109362670312</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9655357433002423</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L72" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9836265860661397</v>
+        <v>0.3739316239316239</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4413403103002275</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D73" t="n">
-        <v>0.317498417146852</v>
+        <v>0.8246466423312068</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4556362771191724</v>
+        <v>0.8180028465074485</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.3758483397363884</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.4742097606378134</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9943538685422734</v>
+        <v>0.5579617292651852</v>
       </c>
       <c r="I73" t="n">
-        <v>0.997161968721834</v>
+        <v>0.5845592073605441</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9646616633608113</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L73" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B74" t="n">
-        <v>0.999498128653896</v>
+        <v>0.408119658119658</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9232918407880069</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8686333774777591</v>
+        <v>0.8330659605477557</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3411850641581992</v>
+        <v>0.8269820793430065</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.4718687403547677</v>
       </c>
       <c r="G74" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.5538454956490696</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9938724399467793</v>
+        <v>0.5115782435314746</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9961573971652663</v>
+        <v>0.5109565490996958</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9735329438710333</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L74" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9997108636728107</v>
+        <v>0.4294871794871794</v>
       </c>
       <c r="C75" t="n">
-        <v>0.91891287485493</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8926261635028784</v>
+        <v>0.8075171382937057</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2503820569032379</v>
+        <v>0.8207586939303975</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3225806451612918</v>
+        <v>0.5607228136290701</v>
       </c>
       <c r="G75" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.6275208295665251</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9943745048613057</v>
+        <v>0.4066752155894716</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9967393944679769</v>
+        <v>0.4427751270576807</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K75" t="n">
-        <v>0.9688438384149842</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L75" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9998988608750282</v>
+        <v>0.4487179487179486</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9146256047077951</v>
+        <v>0.6696428571428572</v>
       </c>
       <c r="D76" t="n">
-        <v>0.914589619057907</v>
+        <v>0.8102497836714794</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2046322553457289</v>
+        <v>0.8178242058172626</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3548387096774199</v>
+        <v>0.5119766375338303</v>
       </c>
       <c r="G76" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.5866895434131498</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9948391914977408</v>
+        <v>0.4864555798421895</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9972778317111342</v>
+        <v>0.4786371387610173</v>
       </c>
       <c r="J76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9645001110870208</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L76" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9825431710178614</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4367641354802088</v>
+        <v>0.7023809523809523</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3765124701089489</v>
+        <v>0.8183984649936918</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1347728819291013</v>
+        <v>0.824702428264898</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3548387096774199</v>
+        <v>0.5158324670767864</v>
       </c>
       <c r="G77" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.5896365071317853</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9945864637892105</v>
+        <v>0.4990037387758953</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9969794267500434</v>
+        <v>0.4747357898329815</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9667848214319522</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L77" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9825696354066686</v>
+        <v>0.4871794871794871</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4351837910221035</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3765589446054607</v>
+        <v>0.8106440688255686</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.8202715092558686</v>
       </c>
       <c r="F78" t="n">
-        <v>0.3548387096774199</v>
+        <v>0.5799598617797252</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.6427442287703622</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9946079686490239</v>
+        <v>0.443536424040789</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9970009638770027</v>
+        <v>0.4252693290014958</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K78" t="n">
-        <v>0.9665362728472044</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L78" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9829914629391346</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4335981970695192</v>
+        <v>0.6755952380952381</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3948959685946022</v>
+        <v>0.8198417357191273</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2288761419175686</v>
+        <v>0.8144787013520314</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3548387096774199</v>
+        <v>0.5980666565049229</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.6575570843477077</v>
       </c>
       <c r="H79" t="n">
-        <v>0.994943693217996</v>
+        <v>0.4183183667114636</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9973890880117569</v>
+        <v>0.4106060248146821</v>
       </c>
       <c r="J79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9633848452105244</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L79" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B80" t="n">
-        <v>0.985110526788161</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4291255411219423</v>
+        <v>0.6755952380952381</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4920496503867814</v>
+        <v>0.7853610245878195</v>
       </c>
       <c r="E80" t="n">
-        <v>0.240366264495745</v>
+        <v>0.8217106416119848</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3225806451612918</v>
+        <v>0.6089044517347474</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0615384615384616</v>
+        <v>0.6663238228730721</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9950394677088439</v>
+        <v>0.4596972479140294</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9974973439597963</v>
+        <v>0.4014460896849275</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K80" t="n">
-        <v>0.9624506699879065</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L80" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9851900104851321</v>
+        <v>0.5363247863247863</v>
       </c>
       <c r="C81" t="n">
-        <v>0.42889311231252</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4950292824521041</v>
+        <v>0.824129043682934</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1913223275697164</v>
+        <v>0.8157033295949545</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.4866502582924542</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0615384615384616</v>
+        <v>0.5643353854777315</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9950973294319542</v>
+        <v>0.4715287686595205</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9975614134152312</v>
+        <v>0.4929293032856058</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K81" t="n">
-        <v>0.9618671054426999</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L81" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9843961232164533</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4286598144746093</v>
+        <v>0.7529761904761905</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4575940123968969</v>
+        <v>0.819552886792289</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1813378669517052</v>
+        <v>0.818528860816482</v>
       </c>
       <c r="F82" t="n">
-        <v>0.258064516129032</v>
+        <v>0.5257769031151072</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0615384615384616</v>
+        <v>0.5966499311675517</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9944612798661453</v>
+        <v>0.4961603152117828</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9968160571318571</v>
+        <v>0.4623951462855568</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K82" t="n">
-        <v>0.9676953519512914</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L82" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9847588848752253</v>
+        <v>0.5662393162393162</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4362149088272211</v>
+        <v>0.7440476190476191</v>
       </c>
       <c r="D83" t="n">
-        <v>0.491527944102063</v>
+        <v>0.8179852778074733</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3059706466229165</v>
+        <v>0.8159579012005663</v>
       </c>
       <c r="F83" t="n">
-        <v>0.258064516129032</v>
+        <v>0.637416173010185</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0615384615384616</v>
+        <v>0.6893119285420769</v>
       </c>
       <c r="H83" t="n">
-        <v>0.994666600510919</v>
+        <v>0.3415997683456339</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9970522196840974</v>
+        <v>0.3770355175799077</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K83" t="n">
-        <v>0.9657500705502127</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L83" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9854996161898454</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4361065649122033</v>
+        <v>0.6577380952380952</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5252252702892147</v>
+        <v>0.8101511910185669</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3263306779432031</v>
+        <v>0.8191864508538729</v>
       </c>
       <c r="F84" t="n">
-        <v>0.258064516129032</v>
+        <v>0.6545712407639412</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.7033477379841389</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9952499639215757</v>
+        <v>0.3600564217250121</v>
       </c>
       <c r="I84" t="n">
-        <v>0.997729416077502</v>
+        <v>0.363126848302969</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K84" t="n">
-        <v>0.9603119476597124</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L84" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9856203106312087</v>
+        <v>0.5405982905982906</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4359979072481089</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5302325012518293</v>
+        <v>0.7973139801202804</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4928906849039097</v>
+        <v>0.8238482704331076</v>
       </c>
       <c r="F85" t="n">
-        <v>0.258064516129032</v>
+        <v>0.5921620342545396</v>
       </c>
       <c r="G85" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.6777654879142464</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9953407049145397</v>
+        <v>0.3647174717258458</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9978319931835649</v>
+        <v>0.3413700357352675</v>
       </c>
       <c r="J85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K85" t="n">
-        <v>0.9594258489978714</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L85" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B86" t="n">
-        <v>0.987630051873893</v>
+        <v>0.5341880341880341</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5257076711474881</v>
+        <v>0.6130952380952381</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6126482937010413</v>
+        <v>0.8196116871088801</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3517098391132553</v>
+        <v>0.8115732332084368</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.4453580661704811</v>
       </c>
       <c r="G86" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.5552470907593035</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9945838590796119</v>
+        <v>0.5038792710841919</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9976450318836428</v>
+        <v>0.4518928102118103</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K86" t="n">
-        <v>0.9580397579119233</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L86" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9866650695850298</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5256389744049332</v>
+        <v>0.5803571428571428</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5678953662289985</v>
+        <v>0.8018329244093183</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2812010341538476</v>
+        <v>0.820830340412487</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.3429973131550978</v>
       </c>
       <c r="G87" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.4697172644421495</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9938209664587115</v>
+        <v>0.5913563343395413</v>
       </c>
       <c r="I87" t="n">
-        <v>0.996749637665626</v>
+        <v>0.5288153546383316</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K87" t="n">
-        <v>0.9650809838276905</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L87" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9859917244742943</v>
+        <v>0.5064102564102564</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5255704463959751</v>
+        <v>0.5684523809523809</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5366375178275835</v>
+        <v>0.8045367245601444</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2264527622025843</v>
+        <v>0.8213716492306352</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.3112611617530184</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.4429639523966018</v>
       </c>
       <c r="H88" t="n">
-        <v>0.993289770612211</v>
+        <v>0.5446092017417534</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9961245649114051</v>
+        <v>0.5523390153470887</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K88" t="n">
-        <v>0.9699815938231239</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L88" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9858376697173431</v>
+        <v>0.4893162393162392</v>
       </c>
       <c r="C89" t="n">
-        <v>0.537847241019811</v>
+        <v>0.5297619047619048</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4239821285376402</v>
+        <v>0.8113212842232385</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06858034507362673</v>
+        <v>0.8148626901969781</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3225806451612918</v>
+        <v>0.5181477360537223</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.614794036605569</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9931267730685247</v>
+        <v>0.4097728513891348</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9959290452060005</v>
+        <v>0.3954151972617328</v>
       </c>
       <c r="J89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K89" t="n">
-        <v>0.9714802479258705</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L89" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9871931756685116</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5371094838426973</v>
+        <v>0.431547619047619</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4865873892224848</v>
+        <v>0.8186221843914154</v>
       </c>
       <c r="E90" t="n">
-        <v>0.01457088957446162</v>
+        <v>0.8185509208111434</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3225806451612918</v>
+        <v>0.5151846885294333</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.6119918132435309</v>
       </c>
       <c r="H90" t="n">
-        <v>0.994207859975994</v>
+        <v>0.38649153885636</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9971848212156024</v>
+        <v>0.3971814658891918</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K90" t="n">
-        <v>0.9614828871109893</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L90" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9871717338792434</v>
+        <v>0.408119658119658</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5363768768140269</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4854636777616369</v>
+        <v>0.8189620174086807</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2432965699612375</v>
+        <v>0.8154117944889092</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3225806451612918</v>
+        <v>0.4512887604335953</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.5584847363889851</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9941948447949721</v>
+        <v>0.4792752537025191</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9971643418863406</v>
+        <v>0.4450293330044859</v>
       </c>
       <c r="J91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K91" t="n">
-        <v>0.9615954132079207</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L91" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9894933973587041</v>
+        <v>0.3675213675213674</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6207883866921341</v>
+        <v>0.300595238095238</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5990978483888836</v>
+        <v>0.8154828077055877</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2645247146055693</v>
+        <v>0.8209335594642065</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3225806451612918</v>
+        <v>0.5464952016327842</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.6373846502406713</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9938641303995884</v>
+        <v>0.4312301472581591</v>
       </c>
       <c r="I92" t="n">
-        <v>0.996773299166626</v>
+        <v>0.3725625009123246</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K92" t="n">
-        <v>0.9646437228756978</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L92" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9900853997508947</v>
+        <v>0.3739316239316239</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6204062124557954</v>
+        <v>0.3214285714285714</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6277128697112477</v>
+        <v>0.8241791552854203</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2199431155930381</v>
+        <v>0.8200016738212278</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3225806451612918</v>
+        <v>0.5166396628754504</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.6122118242516028</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9943629082773794</v>
+        <v>0.4565441355295847</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9973499189095001</v>
+        <v>0.3946731689518042</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K93" t="n">
-        <v>0.9600269790545484</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L93" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9898573471482649</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6200256447286123</v>
+        <v>0.3244047619047619</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6183489081621123</v>
+        <v>0.8126319742663987</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1703288041101831</v>
+        <v>0.8171276262622229</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3225806451612918</v>
+        <v>0.4047720094392848</v>
       </c>
       <c r="G94" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.5187920186600736</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9942096392266071</v>
+        <v>0.5099701165816628</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9971659497802496</v>
+        <v>0.4788079942813838</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K94" t="n">
-        <v>0.9614356136961584</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L94" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9878557386571445</v>
+        <v>0.3247863247863247</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4513167044143294</v>
+        <v>0.3541666666666666</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5232842784808873</v>
+        <v>0.8124937237162303</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2760802453378925</v>
+        <v>0.8202781681486746</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.5384331378010933</v>
       </c>
       <c r="G95" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.6297026141926948</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9936287710118574</v>
+        <v>0.4682875810744797</v>
       </c>
       <c r="I95" t="n">
-        <v>0.99648321514025</v>
+        <v>0.3772658944031694</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K95" t="n">
-        <v>0.9667957063588241</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L95" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9887183111622193</v>
+        <v>0.3205128205128204</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4512810564696842</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5637840637635735</v>
+        <v>0.8132794396938479</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3884666786855087</v>
+        <v>0.8161275251408611</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.3638319088967955</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0615384615384616</v>
+        <v>0.4840821651143095</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9943279945911894</v>
+        <v>0.4666626050633214</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9972937767233494</v>
+        <v>0.5088502526824112</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K96" t="n">
-        <v>0.9603266245918292</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L96" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9875583517131562</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4512453582694033</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5106562549590865</v>
+        <v>0.7973372499006984</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4537809352991061</v>
+        <v>0.8246147103723622</v>
       </c>
       <c r="F97" t="n">
-        <v>0.258064516129032</v>
+        <v>0.2133970138040551</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0615384615384616</v>
+        <v>0.1790163537583337</v>
       </c>
       <c r="H97" t="n">
-        <v>0.9934200248429703</v>
+        <v>0.4562957516250217</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9962295470961456</v>
+        <v>0.4734480376515848</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K97" t="n">
-        <v>0.9687096497014823</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L97" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9828525666923044</v>
+        <v>0.2905982905982905</v>
       </c>
       <c r="C98" t="n">
-        <v>0.56029485709772</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6920216396453176</v>
+        <v>0.8137453876417202</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3363607742226571</v>
+        <v>0.8223618312985181</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2258064516129039</v>
+        <v>0.2779730344076766</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0615384615384616</v>
+        <v>0.23262817415023</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9966606091175774</v>
+        <v>0.439059555797408</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9940000520166653</v>
+        <v>0.424602667585211</v>
       </c>
       <c r="J98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K98" t="n">
-        <v>0.9664542322535288</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.4512654479792635</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.4552716609193841</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9832707470963846</v>
+        <v>0.05982905982905982</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5591748333217166</v>
+        <v>0.07440476190476192</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7102389076858954</v>
+        <v>0.6969692592429803</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2571934501628697</v>
+        <v>0.7600573027159682</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1290322580645196</v>
+        <v>0.5699594817070848</v>
       </c>
       <c r="G99" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.4754890498415746</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9969689069802584</v>
+        <v>0.2262743642876197</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9943918602276032</v>
+        <v>0.2037694338868463</v>
       </c>
       <c r="J99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.5304217323658594</v>
       </c>
       <c r="K99" t="n">
-        <v>0.9633423732977117</v>
+        <v>0.6312128636197234</v>
       </c>
       <c r="L99" t="n">
+        <v>0.4430823117338003</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.5533980582524272</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.5260100343279641</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.4430823117338003</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.4548283126389469</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.4591924841836596</v>
+      </c>
+      <c r="S99" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9851810863060856</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5580649322667803</v>
+        <v>0.01190476190476189</v>
       </c>
       <c r="D100" t="n">
-        <v>0.797559851369581</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1837646401383088</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.06451612903225978</v>
+        <v>0.8393992749073534</v>
       </c>
       <c r="G100" t="n">
-        <v>0.03076923076923083</v>
+        <v>0.6995863259849979</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9984633024678372</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.996166746521631</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.5596800176238143</v>
       </c>
       <c r="K100" t="n">
-        <v>0.9492734477251853</v>
+        <v>0.6611331700036608</v>
       </c>
       <c r="L100" t="n">
+        <v>0.467600700525394</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.5703883495145631</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.5555432018122942</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.467600700525394</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.4700408710087663</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.4762008200059735</v>
+      </c>
+      <c r="S100" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9778808810652656</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C101" t="n">
-        <v>0.04452859441865931</v>
+        <v>0.01488095238095238</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0.9569070071883189</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0.9232072175524301</v>
       </c>
       <c r="F101" t="n">
-        <v>0.03225806451612812</v>
+        <v>0.2851955752574604</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.2382525282575429</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9998405933901486</v>
+        <v>0.3522132825430839</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9978045038706631</v>
+        <v>0.4191087760340794</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.5317297498244503</v>
       </c>
       <c r="K101" t="n">
-        <v>0.9362916290410209</v>
+        <v>0.6325504773168876</v>
       </c>
       <c r="L101" t="n">
+        <v>0.4921190893169877</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.587378640776699</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.5273303406390283</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.4921190893169877</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.4463143281524556</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.4496782426891851</v>
+      </c>
+      <c r="S101" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9740337071782869</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02273981314889401</v>
+        <v>0.03273809523809523</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8282529111722068</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2227567779523529</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.06451612903225978</v>
+        <v>0.06714320656782202</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6615384615384614</v>
+        <v>0.05666131568140109</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9969240592111986</v>
+        <v>0.6138188260274466</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9944329643741209</v>
+        <v>0.584004465612227</v>
       </c>
       <c r="J102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.5182915915130321</v>
       </c>
       <c r="K102" t="n">
-        <v>0.9629923664167638</v>
+        <v>0.6188082565965475</v>
       </c>
       <c r="L102" t="n">
+        <v>0.4133099824868651</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.5315533980582523</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.5137659305379901</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.4133099824868651</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.4485763103478404</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.4521979961443428</v>
+      </c>
+      <c r="S102" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9723839186153446</v>
+        <v>0.02136752136752136</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7586767743659759</v>
+        <v>0.8619915693855537</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1741398098794855</v>
+        <v>0.8704398225170659</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>0.1207537180317995</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.1011457578434224</v>
       </c>
       <c r="H103" t="n">
-        <v>0.9957605282449243</v>
+        <v>0.6223428498919439</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9931058516664862</v>
+        <v>0.5434576528203223</v>
       </c>
       <c r="J103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.5320877335499594</v>
       </c>
       <c r="K103" t="n">
-        <v>0.9734976021779451</v>
+        <v>0.6329165610655852</v>
       </c>
       <c r="L103" t="n">
+        <v>0.4588441330998249</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.5667475728155339</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.5276916876294248</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.4588441330998249</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.454071082547788</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.4583018816693367</v>
+      </c>
+      <c r="S103" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9719317582789426</v>
+        <v>0.008928571428571425</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4550237588267197</v>
+        <v>0.9301592416903756</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1896726643824541</v>
+        <v>0.8813465190089401</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0967741935483879</v>
+        <v>0.1113277490576771</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.09317126572065676</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9960137798987808</v>
+        <v>0.568632768710604</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9934309547793944</v>
+        <v>0.5505825123141614</v>
       </c>
       <c r="J104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.5667295432953779</v>
       </c>
       <c r="K104" t="n">
-        <v>0.9709144307873941</v>
+        <v>0.6683422038241671</v>
       </c>
       <c r="L104" t="n">
+        <v>0.4378283712784588</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.5461165048543688</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.5626589579308716</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.4378283712784588</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.4775549234518042</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.4843248526976024</v>
+      </c>
+      <c r="S104" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9995044098488705</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9613311883308102</v>
+        <v>0.01785714285714285</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4517539517250289</v>
+        <v>0.8220104815944788</v>
       </c>
       <c r="E105" t="n">
-        <v>0.06059514243980324</v>
+        <v>0.8502188608049476</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1290322580645196</v>
+        <v>0.2189715132085524</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1826209878947388</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9959387720189458</v>
+        <v>0.4905468607131919</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9933726752531832</v>
+        <v>0.4691651242231111</v>
       </c>
       <c r="J105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.5858679040052872</v>
       </c>
       <c r="K105" t="n">
-        <v>0.9713683439790582</v>
+        <v>0.6879136042353073</v>
       </c>
       <c r="L105" t="n">
+        <v>0.4746059544658494</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.5776699029126213</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.5819771239559157</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.4746059544658494</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.4710213868960362</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.4744739200086888</v>
+      </c>
+      <c r="S105" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9997999490256538</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9511287612396013</v>
+        <v>0.05059523809523808</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4840606761886735</v>
+        <v>0.8854473545587337</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1100517130338768</v>
+        <v>0.8405250090915963</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1935483870967722</v>
+        <v>0.3494335282555358</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.2910594707432302</v>
       </c>
       <c r="H106" t="n">
-        <v>0.9964745252349068</v>
+        <v>0.4091997879257664</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9940263955588495</v>
+        <v>0.3704858047871205</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.7316498919164521</v>
       </c>
       <c r="K106" t="n">
-        <v>0.9661813748160424</v>
+        <v>0.8119878347554278</v>
       </c>
       <c r="L106" t="n">
+        <v>0.6970227670753064</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.7063106796116504</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.7291287368143093</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.6970227670753064</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.4817391051093615</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.4884737570935947</v>
+      </c>
+      <c r="S106" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9896307417847728</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8620689391373575</v>
+        <v>0.07440476190476192</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6337443864798441</v>
+        <v>0.809529527014256</v>
       </c>
       <c r="E107" t="n">
-        <v>0.06992512714493043</v>
+        <v>0.8226838610176903</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1612903225806441</v>
+        <v>0.3626895048388841</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2153846153846155</v>
+        <v>0.3019594964858839</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9971296291180909</v>
+        <v>0.4466437111373774</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9948188903417373</v>
+        <v>0.3604508898478792</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0.6785856889121425</v>
       </c>
       <c r="K107" t="n">
-        <v>0.9598946761274347</v>
+        <v>0.7554278955816507</v>
       </c>
       <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.8252427184466018</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.6755659944686115</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.4886415486326172</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.4882456759618778</v>
+      </c>
+      <c r="S107" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9896886816798469</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8582413300423124</v>
+        <v>0.09226190476190477</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6372520378089647</v>
+        <v>0.8080962408847309</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2265731323222581</v>
+        <v>0.801936736537891</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1612903225806441</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.9971740199981618</v>
+        <v>0.5321018246348093</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9948985503785387</v>
+        <v>0.6347580487982594</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.3117762877087665</v>
       </c>
       <c r="K108" t="n">
-        <v>0.9592553680439437</v>
+        <v>0.4089155472952042</v>
       </c>
       <c r="L108" t="n">
+        <v>0.478108581436077</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.5327669902912621</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.3053104109627118</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.478108581436077</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.387915384391352</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.3817317874501072</v>
+      </c>
+      <c r="S108" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9872801968526778</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8544959408870758</v>
+        <v>0.1369047619047619</v>
       </c>
       <c r="D109" t="n">
-        <v>0.526512813828146</v>
+        <v>0.8037985530107958</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2896019127213781</v>
+        <v>0.8316384498028809</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1290322580645196</v>
+        <v>0.8995772712947234</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1846153846153847</v>
+        <v>0.7823956835716339</v>
       </c>
       <c r="H109" t="n">
-        <v>0.9952586711341401</v>
+        <v>0.4943928131909315</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9926917570029543</v>
+        <v>0.6037037115663818</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.3965633562351127</v>
       </c>
       <c r="K109" t="n">
-        <v>0.9767310302830582</v>
+        <v>0.5107994705865787</v>
       </c>
       <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.3470873786407767</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.390894055842008</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.4235246148320017</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.4252681310923457</v>
+      </c>
+      <c r="S109" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9896151174094895</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5609620488123042</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5725633376091968</v>
+        <v>0.8186046173234472</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2641593699030962</v>
+        <v>0.8347112478477754</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1290322580645196</v>
+        <v>0.9342442812141314</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.8130339649740579</v>
       </c>
       <c r="H110" t="n">
-        <v>0.999902171747469</v>
+        <v>0.5855552089591999</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9984096947783355</v>
+        <v>0.5706666070314782</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.4613446419474315</v>
       </c>
       <c r="K110" t="n">
-        <v>0.9747526090468045</v>
+        <v>0.5806933062994565</v>
       </c>
       <c r="L110" t="n">
+        <v>0.1260945709281961</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.4077669902912621</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.456283963142607</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.1260945709281961</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.4389022105293815</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.447321404328111</v>
+      </c>
+      <c r="S110" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9898373272016392</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C111" t="n">
-        <v>0.559071232293224</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5819382967194469</v>
+        <v>0.8259506443671929</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2804731875458239</v>
+        <v>0.8426814771918714</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1290322580645196</v>
+        <v>0.7014945279729653</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.6210796872677733</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0.6801679785195373</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9986336067838363</v>
+        <v>0.7400453832541867</v>
       </c>
       <c r="J111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.5448374616200141</v>
       </c>
       <c r="K111" t="n">
-        <v>0.9726478689356843</v>
+        <v>0.6427726619920587</v>
       </c>
       <c r="L111" t="n">
+        <v>0.3309982486865148</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.4805825242718446</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.5405611996720081</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.3309982486865148</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.4578329628083528</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.4615493225447337</v>
+      </c>
+      <c r="S111" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9883049934135102</v>
+        <v>0.002136752136752136</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5571982010124786</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5100611333081445</v>
+        <v>0.8215175625321907</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2140293398894549</v>
+        <v>0.8233982244678987</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1612903225806441</v>
+        <v>0.7454134779981003</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.6593187283918913</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9987069057372708</v>
+        <v>0.681290936005489</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9972307582780363</v>
+        <v>0.7002871988514806</v>
       </c>
       <c r="J112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.5230004543639594</v>
       </c>
       <c r="K112" t="n">
-        <v>0.9834387148438586</v>
+        <v>0.62531328320802</v>
       </c>
       <c r="L112" t="n">
+        <v>0.4150612959719789</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.5279126213592232</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.5185190332578211</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.4150612959719789</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.51775122079082</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.5139210947894323</v>
+      </c>
+      <c r="S112" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9894961333120041</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6671395198862945</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="D113" t="n">
-        <v>0.715469545926922</v>
+        <v>0.8177091421539534</v>
       </c>
       <c r="E113" t="n">
-        <v>0.07571153649013401</v>
+        <v>0.8308942638373007</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1935483870967722</v>
+        <v>0.7583333715789005</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.6717139762373392</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9988594761072263</v>
+        <v>0.7097890436050871</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9975102184825454</v>
+        <v>0.6841032456783056</v>
       </c>
       <c r="J113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.4825345247766044</v>
       </c>
       <c r="K113" t="n">
-        <v>0.9809057856832755</v>
+        <v>0.5936047985131367</v>
       </c>
       <c r="L113" t="n">
+        <v>0.467600700525394</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.5679611650485437</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.4776729253818465</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.467600700525394</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.3779646043472774</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.3919574248554129</v>
+      </c>
+      <c r="S113" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9895562157489296</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6664640958530516</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7184692526016335</v>
+        <v>0.8139240932155383</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1534945131624844</v>
+        <v>0.8388879424853678</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1935483870967722</v>
+        <v>0.7084676207975611</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.6318145597297613</v>
       </c>
       <c r="H114" t="n">
-        <v>0.998853419161259</v>
+        <v>0.7918698206865462</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9976008059658086</v>
+        <v>0.715542120094006</v>
       </c>
       <c r="J114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.5126051577193683</v>
       </c>
       <c r="K114" t="n">
-        <v>0.979874732390936</v>
+        <v>0.6172312804483118</v>
       </c>
       <c r="L114" t="n">
+        <v>0.3957968476357268</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.5279126213592232</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.5081650521868443</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.3957968476357268</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.4395963381129437</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.4460180835754433</v>
+      </c>
+      <c r="S114" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9892051087495881</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6657928511197898</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7024070999775393</v>
+        <v>0.8447262678280361</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2038594155648589</v>
+        <v>0.8416470585126722</v>
       </c>
       <c r="F115" t="n">
-        <v>0.2258064516129039</v>
+        <v>0.7862858553086455</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.6981295618106934</v>
       </c>
       <c r="H115" t="n">
-        <v>0.9985228443052774</v>
+        <v>0.5933676549433829</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9973092113345309</v>
+        <v>0.6505039259497141</v>
       </c>
       <c r="J115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.5357364138291867</v>
       </c>
       <c r="K115" t="n">
-        <v>0.9818776518647443</v>
+        <v>0.6357607501900819</v>
       </c>
       <c r="L115" t="n">
+        <v>0.4185639229422066</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.5400485436893203</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.5290119939404889</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.4220665499124343</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.4488238663391808</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.4535393304189633</v>
+      </c>
+      <c r="S115" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9850576326392908</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3853663567467568</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5797702477465246</v>
+        <v>0.8216318148412766</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1078235697140766</v>
+        <v>0.8374910264999796</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2258064516129039</v>
+        <v>0.8324243298349228</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.7380391692118755</v>
       </c>
       <c r="H116" t="n">
-        <v>0.9988606903305294</v>
+        <v>0.5369842896455852</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9977938574840879</v>
+        <v>0.6095448924487573</v>
       </c>
       <c r="J116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.6121659392253783</v>
       </c>
       <c r="K116" t="n">
-        <v>0.9777341744656977</v>
+        <v>0.7061473909492832</v>
       </c>
       <c r="L116" t="n">
+        <v>0.4728546409807355</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.5740291262135921</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.61283059775131</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.4693520140105079</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1</v>
+      </c>
+      <c r="S116" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9854063261166083</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3852363498985255</v>
+        <v>0.2232142857142858</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5930508143198971</v>
+        <v>0.829324685465715</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2444482692276145</v>
+        <v>0.8333904031509844</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1935483870967722</v>
+        <v>0.8959778234632774</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.7924011884631871</v>
       </c>
       <c r="H117" t="n">
-        <v>0.9990359184503917</v>
+        <v>0.5733056891296506</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9980855265928924</v>
+        <v>0.5555198119347867</v>
       </c>
       <c r="J117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.6098252764047419</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9751247411652975</v>
+        <v>0.6816901805074483</v>
       </c>
       <c r="L117" t="n">
+        <v>0.5236427320490368</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.6092233009708737</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.6040748822147791</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.521891418563923</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9858683419125577</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3851058916715364</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6116437914262436</v>
+        <v>0.8248883981973458</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0825087633232974</v>
+        <v>0.8417035358198151</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1935483870967722</v>
+        <v>0.6611913629479952</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.5984479883071396</v>
       </c>
       <c r="H118" t="n">
-        <v>0.9993043748508661</v>
+        <v>0.7869501147721993</v>
       </c>
       <c r="I118" t="n">
-        <v>0.998482817439391</v>
+        <v>0.727339110023481</v>
       </c>
       <c r="J118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.4835671701386499</v>
       </c>
       <c r="K118" t="n">
-        <v>0.9716828912948247</v>
+        <v>0.5938582411083889</v>
       </c>
       <c r="L118" t="n">
+        <v>0.4763572679509632</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.5764563106796116</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.4787152724695288</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.4763572679509632</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.4170930130961973</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.4195172282711993</v>
+      </c>
+      <c r="S118" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9851557359317356</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3597191424812062</v>
+        <v>0.2797619047619048</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4765668686239572</v>
+        <v>0.8454799427581161</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1926279730688892</v>
+        <v>0.8353271160933808</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1612903225806441</v>
+        <v>0.6196088539324948</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.565240264072801</v>
       </c>
       <c r="H119" t="n">
-        <v>0.9980196126857103</v>
+        <v>0.7086646182002438</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9970653603225961</v>
+        <v>0.7530938587693652</v>
       </c>
       <c r="J119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.5600793071638052</v>
       </c>
       <c r="K119" t="n">
-        <v>0.9826292188753706</v>
+        <v>0.6530934076764946</v>
       </c>
       <c r="L119" t="n">
-        <v>0.5</v>
+        <v>0.4518388791593695</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.5594660194174756</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.555946242686198</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.4535901926444834</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0.4657256302969701</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.4678704281951723</v>
+      </c>
+      <c r="S119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B120" t="n">
-        <v>0.984919735469224</v>
+        <v>0.0534188034188034</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3591980326968569</v>
+        <v>0.2529761904761905</v>
       </c>
       <c r="D120" t="n">
-        <v>0.462786105275483</v>
+        <v>0.8253004314759759</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3775200261392984</v>
+        <v>0.833561803676217</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1290322580645196</v>
+        <v>0.6740336485020215</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.61189295542166</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9977443900911172</v>
+        <v>0.6505070675988471</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9968226702045127</v>
+        <v>0.7063060091136275</v>
       </c>
       <c r="J120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.5464208511751505</v>
       </c>
       <c r="K120" t="n">
-        <v>0.9842700119624287</v>
+        <v>0.6480527160598124</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>0.5341506129597198</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.616504854368932</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.5421594652064543</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.5341506129597198</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0.5064849961653091</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.5010942463819272</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B121" t="n">
-        <v>0.985312911327368</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3586724710518523</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4782006837676019</v>
+        <v>0.8417655800512969</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4342934994517286</v>
+        <v>0.8258912572247243</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0967741935483879</v>
+        <v>0.4834682141830082</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.5260757108023065</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9979718306455284</v>
+        <v>0.6833060359507753</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9971636194093563</v>
+        <v>0.6972321076461721</v>
       </c>
       <c r="J121" t="n">
-        <v>0.6505070675988471</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>0.981289234280188</v>
+        <v>1</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>0.4623467600700525</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.5667475728155339</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.4623467600700525</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.4496830312503033</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.4564989546281463</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9907672441942948</v>
+        <v>0.202991452991453</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.3898809523809523</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>0.8225231991975527</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4079363369724504</v>
+        <v>0.8457818859679205</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1290322580645196</v>
+        <v>0.4230665942974655</v>
       </c>
       <c r="G122" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.4758746191674117</v>
       </c>
       <c r="H122" t="n">
-        <v>0.9930220056332958</v>
+        <v>0.7548506731960245</v>
       </c>
       <c r="I122" t="n">
-        <v>0.996536446132341</v>
+        <v>0.7398704241936578</v>
       </c>
       <c r="J122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.9807111507994541</v>
+        <v>0.7613556362817154</v>
       </c>
       <c r="L122" t="n">
+        <v>0.425569176882662</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.425569176882662</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0.5906588872600891</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.5684867903011214</v>
+      </c>
+      <c r="S122" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9902854956559426</v>
+        <v>0.2756410256410256</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>0.4494047619047619</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>0.8314178054745589</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2447512174724679</v>
+        <v>0.8276147347747844</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1290322580645196</v>
+        <v>0.1099210669156393</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.2153405358819349</v>
       </c>
       <c r="H123" t="n">
-        <v>0.9927233403986165</v>
+        <v>0.9618970566512602</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9961695643559563</v>
+        <v>0.9738455872944172</v>
       </c>
       <c r="J123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.4247614589213675</v>
       </c>
       <c r="K123" t="n">
-        <v>0.9834275684871278</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
+        <v>0.3064798598949212</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.4099620585660084</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.3064798598949212</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0.2664964516974574</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.2930516712373401</v>
+      </c>
+      <c r="S123" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B124" t="n">
-        <v>0.988148038243264</v>
+        <v>0.393162393162393</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>0.6339285714285714</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>0.7954831318683658</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2219290711988536</v>
+        <v>0.8217095570311057</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1612903225806441</v>
+        <v>0.7568904175202793</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03076923076923083</v>
+        <v>0.7538059728670907</v>
       </c>
       <c r="H124" t="n">
-        <v>0.9911066272179969</v>
+        <v>0.5362716851339961</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9942655179662935</v>
+        <v>0.4812012897864462</v>
       </c>
       <c r="J124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.521719974115023</v>
       </c>
       <c r="K124" t="n">
-        <v>0.9983337449731385</v>
+        <v>0.6223142124975359</v>
       </c>
       <c r="L124" t="n">
+        <v>0.3555166374781086</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.4927184466019417</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.5172265228690951</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.3555166374781086</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0.3661061869581679</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.3912677509571262</v>
+      </c>
+      <c r="S124" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9895358980349535</v>
+        <v>0.4294871794871794</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>0.8174440166948352</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0025840470772025</v>
+        <v>0.8257191154752621</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1935483870967722</v>
+        <v>0.4000585346145867</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>0.4569139073164543</v>
       </c>
       <c r="H125" t="n">
-        <v>0.9944956527615186</v>
+        <v>0.8373213481418396</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9982007542252914</v>
+        <v>0.7483215705549733</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.5453055941841414</v>
       </c>
       <c r="K125" t="n">
-        <v>0.9669481793166751</v>
+        <v>0.6464334994790346</v>
       </c>
       <c r="L125" t="n">
+        <v>0.4168126094570928</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.5351941747572815</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.5410337303517574</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.4168126094570928</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0.4627889366742066</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.4657036574438622</v>
+      </c>
+      <c r="S125" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9871775334553915</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>0.7989289927695611</v>
       </c>
       <c r="E126" t="n">
-        <v>0.02717293657661712</v>
+        <v>0.8259061849629872</v>
       </c>
       <c r="F126" t="n">
-        <v>0.258064516129032</v>
+        <v>0.06373008008882408</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>0.177083440606274</v>
       </c>
       <c r="H126" t="n">
-        <v>0.992650667152492</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9960309948663526</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.5692354293739416</v>
       </c>
       <c r="K126" t="n">
-        <v>0.983965977254543</v>
+        <v>0.6709047900650502</v>
       </c>
       <c r="L126" t="n">
+        <v>0.4343257443082311</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.5473300970873786</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.5651883868636471</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.4343257443082311</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.4561777354937043</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.4588612234923565</v>
+      </c>
+      <c r="S126" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9849540918522948</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>0.8140641755195509</v>
       </c>
       <c r="E127" t="n">
-        <v>0.257309737740098</v>
+        <v>0.8330763197266476</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2903225806451637</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>0.9562991748207004</v>
       </c>
       <c r="H127" t="n">
-        <v>0.9909123498035324</v>
+        <v>0.3707296219929684</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9939859258176579</v>
+        <v>0.2884122331018379</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0.5419322860014595</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0.6429838641547689</v>
       </c>
       <c r="L127" t="n">
+        <v>0.4535901926444834</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.5606796116504854</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.5376287298653288</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.4535901926444834</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.4823652761462813</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.4809742322626191</v>
+      </c>
+      <c r="S127" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B128" t="n">
-        <v>0.988835655179478</v>
+        <v>0.6901709401709401</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>0.8208919451701608</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2716846568714628</v>
+        <v>0.8251705550787586</v>
       </c>
       <c r="F128" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.6817640644826786</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>0.6915228738750617</v>
       </c>
       <c r="H128" t="n">
-        <v>0.9958090459464459</v>
+        <v>0.4356150255383813</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9996806237504183</v>
+        <v>0.5264563935012007</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.5495600930757687</v>
       </c>
       <c r="K128" t="n">
-        <v>0.9546659025765803</v>
+        <v>0.6507842640308636</v>
       </c>
       <c r="L128" t="n">
+        <v>0.4746059544658494</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.5752427184466019</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.5453282003530082</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.4746059544658494</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0.4702981350781986</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.468283146433517</v>
+      </c>
+      <c r="S128" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9867605378490756</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>0.8630952380952381</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>0.8120903226948355</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1928000425180111</v>
+        <v>0.8250688681905269</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2903225806451637</v>
+        <v>0.6119960286017512</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>0.6335186789189581</v>
       </c>
       <c r="H129" t="n">
-        <v>0.9941645975668771</v>
+        <v>0.5617259035703712</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9977455742032486</v>
+        <v>0.5764609710971633</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.4816120282531772</v>
       </c>
       <c r="K129" t="n">
-        <v>0.9698313082519218</v>
+        <v>0.5812987524992256</v>
       </c>
       <c r="L129" t="n">
+        <v>0.425569176882662</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.54126213592233</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.476741761983517</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.425569176882662</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0.399705845233819</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.4136414238779222</v>
+      </c>
+      <c r="S129" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B130" t="n">
-        <v>0.986315570748078</v>
+        <v>0.9358974358974357</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.7984613780182788</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2186608676624533</v>
+        <v>0.8241011740306265</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2258064516129039</v>
+        <v>0.5792938320252363</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>0.6063593288497064</v>
       </c>
       <c r="H130" t="n">
-        <v>0.993815420540254</v>
+        <v>0.5863861258720136</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9973216654516615</v>
+        <v>0.5984463686739868</v>
       </c>
       <c r="J130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.4878767434495863</v>
       </c>
       <c r="K130" t="n">
-        <v>0.9730170184310524</v>
+        <v>0.5877052181014333</v>
       </c>
       <c r="L130" t="n">
+        <v>0.4133099824868651</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.5327669902912621</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.4713632510110767</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.3922942206654991</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0.4992379158697952</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.497841375003394</v>
+      </c>
+      <c r="S130" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9848649262371179</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>0.9732142857142858</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>0.8047628919116875</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2190729911806084</v>
+        <v>0.8228511729719241</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>0.819560669936545</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>0.8063618729879589</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9936592828625714</v>
+        <v>0.4252858022654106</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9971231783217135</v>
+        <v>0.4138219580597101</v>
       </c>
       <c r="J131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.5173415577799502</v>
       </c>
       <c r="K131" t="n">
-        <v>0.9744176722955573</v>
+        <v>0.6178367266480809</v>
       </c>
       <c r="L131" t="n">
+        <v>0.4203152364273205</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.5376213592233009</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0.4053850709175104</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.4160036927421326</v>
+      </c>
+      <c r="S131" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9864622718250357</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>0.8305827208491328</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3842462459056604</v>
+        <v>0.8209963916862013</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>0.8551408477757576</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>0.8360245798689692</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9949261735856471</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9985848455143033</v>
+        <v>0.3841808102347977</v>
       </c>
       <c r="J132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.5289347230445139</v>
       </c>
       <c r="K132" t="n">
-        <v>0.9626555518560601</v>
+        <v>0.6296922080482104</v>
       </c>
       <c r="L132" t="n">
+        <v>0.4413309982486865</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.5521844660194174</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.5245090545217017</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0.4462803498791344</v>
+      </c>
+      <c r="Q132" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.9867162389918183</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.9951256303983574</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.9988016277841398</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.9607671626147806</v>
-      </c>
-      <c r="L133" t="n">
+      <c r="R132" t="n">
+        <v>0.4512367970892503</v>
+      </c>
+      <c r="S132" t="n">
         <v>0.5</v>
       </c>
     </row>
